--- a/Source_Files/RMI_-_EE_Report_for_Accounting (7).xlsx
+++ b/Source_Files/RMI_-_EE_Report_for_Accounting (7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{336504D5-656E-45A8-9C89-903032B3BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9780D3-0F84-4780-915D-D50447FF2B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12541" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12577" uniqueCount="2615">
   <si>
     <t>Employee Name</t>
   </si>
@@ -5303,6 +5303,9 @@
     <t>001657</t>
   </si>
   <si>
+    <t>Social Media Specialist</t>
+  </si>
+  <si>
     <t>Joni Short</t>
   </si>
   <si>
@@ -5402,7 +5405,7 @@
     <t>001672</t>
   </si>
   <si>
-    <t>Senior Research and Data Analyst</t>
+    <t>Senior Business Data Analyst</t>
   </si>
   <si>
     <t>Gabrielle Couderc</t>
@@ -7582,6 +7585,18 @@
     <t>002060</t>
   </si>
   <si>
+    <t>Alan Zenagui</t>
+  </si>
+  <si>
+    <t>002062</t>
+  </si>
+  <si>
+    <t>Diamond Terrell</t>
+  </si>
+  <si>
+    <t>002063</t>
+  </si>
+  <si>
     <t>Michael Willems</t>
   </si>
   <si>
@@ -7589,6 +7604,12 @@
   </si>
   <si>
     <t>Procurement Systems Specialist</t>
+  </si>
+  <si>
+    <t>Kathryn Edwards | Kat Edwards</t>
+  </si>
+  <si>
+    <t>002069</t>
   </si>
   <si>
     <t>Xungfeng Lu</t>
@@ -8261,9 +8282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1109"/>
+  <dimension ref="A1:R1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8367,7 +8390,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="4">
-        <v>299786.23999999999</v>
+        <v>298756.86</v>
       </c>
       <c r="Q2" s="5">
         <v>0.55000000000000004</v>
@@ -8417,7 +8440,7 @@
         <v>28</v>
       </c>
       <c r="P3" s="4">
-        <v>114992.89</v>
+        <v>114598.03</v>
       </c>
       <c r="Q3" s="5">
         <v>0.65</v>
@@ -8467,7 +8490,7 @@
         <v>28</v>
       </c>
       <c r="P4" s="4">
-        <v>154735.43</v>
+        <v>154204.10999999999</v>
       </c>
       <c r="Q4" s="5">
         <v>0.6</v>
@@ -8517,7 +8540,7 @@
         <v>28</v>
       </c>
       <c r="P5" s="4">
-        <v>123709.08</v>
+        <v>123284.3</v>
       </c>
       <c r="Q5" s="5">
         <v>0.65</v>
@@ -8567,7 +8590,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="4">
-        <v>112550.43</v>
+        <v>112163.96</v>
       </c>
       <c r="Q6" s="5">
         <v>0.65</v>
@@ -8617,7 +8640,7 @@
         <v>28</v>
       </c>
       <c r="P7" s="4">
-        <v>169862.56</v>
+        <v>169279.3</v>
       </c>
       <c r="Q7" s="5">
         <v>0.6</v>
@@ -8667,7 +8690,7 @@
         <v>28</v>
       </c>
       <c r="P8" s="4">
-        <v>128376.02</v>
+        <v>127935.21</v>
       </c>
       <c r="Q8" s="5">
         <v>0.65</v>
@@ -8765,7 +8788,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="4">
-        <v>75128.350000000006</v>
+        <v>74870.38</v>
       </c>
       <c r="Q10" s="5">
         <v>0.7</v>
@@ -14755,7 +14778,7 @@
         <v>28</v>
       </c>
       <c r="P131" s="4">
-        <v>149480.07</v>
+        <v>148966.79999999999</v>
       </c>
       <c r="Q131" s="5">
         <v>0.6</v>
@@ -17463,7 +17486,7 @@
         <v>28</v>
       </c>
       <c r="P186" s="4">
-        <v>107038.46</v>
+        <v>106670.92</v>
       </c>
       <c r="Q186" s="5">
         <v>0.65</v>
@@ -21991,7 +22014,7 @@
         <v>28</v>
       </c>
       <c r="P278" s="4">
-        <v>149480.07</v>
+        <v>148966.79999999999</v>
       </c>
       <c r="Q278" s="5">
         <v>0.6</v>
@@ -22285,7 +22308,7 @@
         <v>28</v>
       </c>
       <c r="P284" s="4">
-        <v>119348.72</v>
+        <v>118938.92</v>
       </c>
       <c r="Q284" s="5">
         <v>0.65</v>
@@ -25425,7 +25448,7 @@
         <v>28</v>
       </c>
       <c r="P348" s="4">
-        <v>84556.17</v>
+        <v>84265.82</v>
       </c>
       <c r="Q348" s="5">
         <v>0.7</v>
@@ -25523,7 +25546,7 @@
         <v>28</v>
       </c>
       <c r="P350" s="4">
-        <v>91711.56</v>
+        <v>91396.65</v>
       </c>
       <c r="Q350" s="5">
         <v>0.7</v>
@@ -25573,7 +25596,7 @@
         <v>28</v>
       </c>
       <c r="P351" s="4">
-        <v>89964.67</v>
+        <v>89655.76</v>
       </c>
       <c r="Q351" s="5">
         <v>0.7</v>
@@ -25623,7 +25646,7 @@
         <v>28</v>
       </c>
       <c r="P352" s="4">
-        <v>89964.67</v>
+        <v>89655.76</v>
       </c>
       <c r="Q352" s="5">
         <v>0.7</v>
@@ -25660,7 +25683,7 @@
         <v>25</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="L353" s="3">
         <v>44368</v>
@@ -26189,7 +26212,7 @@
         <v>20</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E364" s="2"/>
       <c r="F364" s="2" t="s">
@@ -26319,7 +26342,7 @@
         <v>28</v>
       </c>
       <c r="P366" s="4">
-        <v>195071.7</v>
+        <v>175564.53</v>
       </c>
       <c r="Q366" s="5">
         <v>0.6</v>
@@ -29041,13 +29064,13 @@
       </c>
       <c r="M421" s="3"/>
       <c r="N421" s="2" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P421" s="4">
-        <v>94812.800000000003</v>
+        <v>106000</v>
       </c>
       <c r="Q421" s="5">
         <v>0.7</v>
@@ -30483,7 +30506,7 @@
         <v>28</v>
       </c>
       <c r="P450" s="4">
-        <v>56284.02</v>
+        <v>56090.75</v>
       </c>
       <c r="Q450" s="5">
         <v>0.7</v>
@@ -30879,7 +30902,7 @@
         <v>28</v>
       </c>
       <c r="P458" s="4">
-        <v>88014.21</v>
+        <v>87712</v>
       </c>
       <c r="Q458" s="5">
         <v>0.7</v>
@@ -30929,7 +30952,7 @@
         <v>28</v>
       </c>
       <c r="P459" s="4">
-        <v>141950.29999999999</v>
+        <v>141462.89000000001</v>
       </c>
       <c r="Q459" s="5">
         <v>0.6</v>
@@ -31275,7 +31298,7 @@
         <v>28</v>
       </c>
       <c r="P466" s="4">
-        <v>88014.21</v>
+        <v>87712</v>
       </c>
       <c r="Q466" s="5">
         <v>0.7</v>
@@ -32263,7 +32286,7 @@
         <v>28</v>
       </c>
       <c r="P486" s="4">
-        <v>88267.05</v>
+        <v>87963.96</v>
       </c>
       <c r="Q486" s="5">
         <v>0.7</v>
@@ -32661,7 +32684,7 @@
         <v>28</v>
       </c>
       <c r="P494" s="4">
-        <v>88014.21</v>
+        <v>87712</v>
       </c>
       <c r="Q494" s="5">
         <v>0.7</v>
@@ -38331,7 +38354,7 @@
         <v>28</v>
       </c>
       <c r="P609" s="4">
-        <v>74178.89</v>
+        <v>73924.179999999993</v>
       </c>
       <c r="Q609" s="5">
         <v>0.7</v>
@@ -43573,7 +43596,7 @@
         <v>28</v>
       </c>
       <c r="P715" s="4">
-        <v>110036.03</v>
+        <v>109658.2</v>
       </c>
       <c r="Q715" s="5">
         <v>0.65</v>
@@ -43643,7 +43666,7 @@
         <v>20</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="E717" s="2"/>
       <c r="F717" s="2" t="s">
@@ -43667,13 +43690,11 @@
       </c>
       <c r="M717" s="3"/>
       <c r="N717" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O717" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="O717" s="2"/>
       <c r="P717" s="4">
-        <v>72625.3</v>
+        <v>75000</v>
       </c>
       <c r="Q717" s="5">
         <v>0.4</v>
@@ -43684,10 +43705,10 @@
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>20</v>
@@ -43717,7 +43738,7 @@
       </c>
       <c r="M718" s="3"/>
       <c r="N718" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="O718" s="2" t="s">
         <v>28</v>
@@ -43734,10 +43755,10 @@
     </row>
     <row r="719" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>20</v>
@@ -43767,7 +43788,7 @@
         <v>45296</v>
       </c>
       <c r="N719" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O719" s="2" t="s">
         <v>310</v>
@@ -43782,10 +43803,10 @@
     </row>
     <row r="720" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>20</v>
@@ -43815,7 +43836,7 @@
       </c>
       <c r="M720" s="3"/>
       <c r="N720" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="O720" s="2" t="s">
         <v>28</v>
@@ -43832,10 +43853,10 @@
     </row>
     <row r="721" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>20</v>
@@ -43871,7 +43892,7 @@
         <v>28</v>
       </c>
       <c r="P721" s="4">
-        <v>75619.259999999995</v>
+        <v>75359.600000000006</v>
       </c>
       <c r="Q721" s="5">
         <v>0.7</v>
@@ -43882,10 +43903,10 @@
     </row>
     <row r="722" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>20</v>
@@ -43930,10 +43951,10 @@
     </row>
     <row r="723" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>20</v>
@@ -43980,10 +44001,10 @@
     </row>
     <row r="724" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>20</v>
@@ -44013,7 +44034,7 @@
       </c>
       <c r="M724" s="3"/>
       <c r="N724" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="O724" s="2" t="s">
         <v>28</v>
@@ -44030,10 +44051,10 @@
     </row>
     <row r="725" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>20</v>
@@ -44080,10 +44101,10 @@
     </row>
     <row r="726" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>20</v>
@@ -44128,10 +44149,10 @@
     </row>
     <row r="727" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>20</v>
@@ -44176,10 +44197,10 @@
     </row>
     <row r="728" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>20</v>
@@ -44224,10 +44245,10 @@
     </row>
     <row r="729" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>20</v>
@@ -44274,10 +44295,10 @@
     </row>
     <row r="730" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>20</v>
@@ -44307,7 +44328,7 @@
       </c>
       <c r="M730" s="3"/>
       <c r="N730" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="O730" s="2" t="s">
         <v>28</v>
@@ -44324,10 +44345,10 @@
     </row>
     <row r="731" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>20</v>
@@ -44357,13 +44378,13 @@
       </c>
       <c r="M731" s="3"/>
       <c r="N731" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="O731" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P731" s="4">
-        <v>90176.5</v>
+        <v>96000</v>
       </c>
       <c r="Q731" s="5">
         <v>0.7</v>
@@ -44374,10 +44395,10 @@
     </row>
     <row r="732" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>20</v>
@@ -44424,10 +44445,10 @@
     </row>
     <row r="733" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>20</v>
@@ -44474,10 +44495,10 @@
     </row>
     <row r="734" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>20</v>
@@ -44507,7 +44528,7 @@
       </c>
       <c r="M734" s="3"/>
       <c r="N734" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="O734" s="2" t="s">
         <v>28</v>
@@ -44524,10 +44545,10 @@
     </row>
     <row r="735" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>20</v>
@@ -44574,10 +44595,10 @@
     </row>
     <row r="736" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>20</v>
@@ -44624,10 +44645,10 @@
     </row>
     <row r="737" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>20</v>
@@ -44650,7 +44671,7 @@
         <v>25</v>
       </c>
       <c r="K737" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="L737" s="3">
         <v>44901</v>
@@ -44674,10 +44695,10 @@
     </row>
     <row r="738" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>20</v>
@@ -44724,10 +44745,10 @@
     </row>
     <row r="739" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>20</v>
@@ -44772,10 +44793,10 @@
     </row>
     <row r="740" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>20</v>
@@ -44817,15 +44838,15 @@
         <v>0.7</v>
       </c>
       <c r="R740" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="741" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>20</v>
@@ -44855,7 +44876,7 @@
       </c>
       <c r="M741" s="3"/>
       <c r="N741" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="O741" s="2" t="s">
         <v>28</v>
@@ -44872,10 +44893,10 @@
     </row>
     <row r="742" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>20</v>
@@ -44905,7 +44926,7 @@
       </c>
       <c r="M742" s="3"/>
       <c r="N742" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O742" s="2" t="s">
         <v>28</v>
@@ -44922,10 +44943,10 @@
     </row>
     <row r="743" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>20</v>
@@ -44955,7 +44976,7 @@
       </c>
       <c r="M743" s="3"/>
       <c r="N743" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O743" s="2" t="s">
         <v>28</v>
@@ -44972,10 +44993,10 @@
     </row>
     <row r="744" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>20</v>
@@ -45017,15 +45038,15 @@
         <v>0.69</v>
       </c>
       <c r="R744" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="745" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C745" s="2" t="s">
         <v>20</v>
@@ -45072,10 +45093,10 @@
     </row>
     <row r="746" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C746" s="2" t="s">
         <v>20</v>
@@ -45098,7 +45119,7 @@
         <v>25</v>
       </c>
       <c r="K746" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="L746" s="3">
         <v>44943</v>
@@ -45122,10 +45143,10 @@
     </row>
     <row r="747" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>20</v>
@@ -45172,10 +45193,10 @@
     </row>
     <row r="748" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>20</v>
@@ -45222,10 +45243,10 @@
     </row>
     <row r="749" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>20</v>
@@ -45272,10 +45293,10 @@
     </row>
     <row r="750" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>20</v>
@@ -45322,10 +45343,10 @@
     </row>
     <row r="751" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>20</v>
@@ -45372,10 +45393,10 @@
     </row>
     <row r="752" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>20</v>
@@ -45422,10 +45443,10 @@
     </row>
     <row r="753" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>20</v>
@@ -45472,10 +45493,10 @@
     </row>
     <row r="754" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>20</v>
@@ -45522,10 +45543,10 @@
     </row>
     <row r="755" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>20</v>
@@ -45572,10 +45593,10 @@
     </row>
     <row r="756" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>20</v>
@@ -45622,10 +45643,10 @@
     </row>
     <row r="757" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>20</v>
@@ -45670,10 +45691,10 @@
     </row>
     <row r="758" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>20</v>
@@ -45720,10 +45741,10 @@
     </row>
     <row r="759" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>20</v>
@@ -45770,10 +45791,10 @@
     </row>
     <row r="760" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>20</v>
@@ -45820,10 +45841,10 @@
     </row>
     <row r="761" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>20</v>
@@ -45870,10 +45891,10 @@
     </row>
     <row r="762" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>20</v>
@@ -45918,10 +45939,10 @@
     </row>
     <row r="763" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>20</v>
@@ -45944,7 +45965,7 @@
         <v>25</v>
       </c>
       <c r="K763" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="L763" s="3">
         <v>44943</v>
@@ -45966,10 +45987,10 @@
     </row>
     <row r="764" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>20</v>
@@ -46016,10 +46037,10 @@
     </row>
     <row r="765" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>20</v>
@@ -46066,10 +46087,10 @@
     </row>
     <row r="766" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>20</v>
@@ -46116,10 +46137,10 @@
     </row>
     <row r="767" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>20</v>
@@ -46166,10 +46187,10 @@
     </row>
     <row r="768" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>20</v>
@@ -46214,10 +46235,10 @@
     </row>
     <row r="769" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>20</v>
@@ -46247,7 +46268,7 @@
         <v>45352</v>
       </c>
       <c r="N769" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="O769" s="2" t="s">
         <v>28</v>
@@ -46262,10 +46283,10 @@
     </row>
     <row r="770" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>20</v>
@@ -46295,7 +46316,7 @@
       </c>
       <c r="M770" s="3"/>
       <c r="N770" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O770" s="2" t="s">
         <v>28</v>
@@ -46312,10 +46333,10 @@
     </row>
     <row r="771" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>20</v>
@@ -46362,10 +46383,10 @@
     </row>
     <row r="772" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>20</v>
@@ -46412,10 +46433,10 @@
     </row>
     <row r="773" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>20</v>
@@ -46462,10 +46483,10 @@
     </row>
     <row r="774" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>20</v>
@@ -46510,10 +46531,10 @@
     </row>
     <row r="775" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>20</v>
@@ -46560,10 +46581,10 @@
     </row>
     <row r="776" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>20</v>
@@ -46610,10 +46631,10 @@
     </row>
     <row r="777" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>20</v>
@@ -46660,10 +46681,10 @@
     </row>
     <row r="778" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>20</v>
@@ -46686,7 +46707,7 @@
         <v>25</v>
       </c>
       <c r="K778" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="L778" s="3">
         <v>44958</v>
@@ -46710,10 +46731,10 @@
     </row>
     <row r="779" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>20</v>
@@ -46743,7 +46764,7 @@
       </c>
       <c r="M779" s="3"/>
       <c r="N779" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="O779" s="2" t="s">
         <v>28</v>
@@ -46760,10 +46781,10 @@
     </row>
     <row r="780" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>20</v>
@@ -46793,7 +46814,7 @@
       </c>
       <c r="M780" s="3"/>
       <c r="N780" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="O780" s="2" t="s">
         <v>28</v>
@@ -46810,10 +46831,10 @@
     </row>
     <row r="781" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>20</v>
@@ -46860,10 +46881,10 @@
     </row>
     <row r="782" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>20</v>
@@ -46910,10 +46931,10 @@
     </row>
     <row r="783" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>20</v>
@@ -46958,10 +46979,10 @@
     </row>
     <row r="784" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>20</v>
@@ -47008,10 +47029,10 @@
     </row>
     <row r="785" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>20</v>
@@ -47058,10 +47079,10 @@
     </row>
     <row r="786" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>20</v>
@@ -47108,10 +47129,10 @@
     </row>
     <row r="787" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>735</v>
@@ -47156,10 +47177,10 @@
     </row>
     <row r="788" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>20</v>
@@ -47206,10 +47227,10 @@
     </row>
     <row r="789" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>20</v>
@@ -47254,10 +47275,10 @@
     </row>
     <row r="790" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>20</v>
@@ -47302,10 +47323,10 @@
     </row>
     <row r="791" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>20</v>
@@ -47350,10 +47371,10 @@
     </row>
     <row r="792" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>20</v>
@@ -47400,10 +47421,10 @@
     </row>
     <row r="793" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>20</v>
@@ -47452,10 +47473,10 @@
     </row>
     <row r="794" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>20</v>
@@ -47504,10 +47525,10 @@
     </row>
     <row r="795" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>20</v>
@@ -47552,10 +47573,10 @@
     </row>
     <row r="796" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>20</v>
@@ -47604,10 +47625,10 @@
     </row>
     <row r="797" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>20</v>
@@ -47654,10 +47675,10 @@
     </row>
     <row r="798" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>20</v>
@@ -47706,10 +47727,10 @@
     </row>
     <row r="799" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>20</v>
@@ -47739,7 +47760,7 @@
         <v>45149</v>
       </c>
       <c r="N799" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="O799" s="2" t="s">
         <v>310</v>
@@ -47754,10 +47775,10 @@
     </row>
     <row r="800" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>20</v>
@@ -47802,10 +47823,10 @@
     </row>
     <row r="801" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>20</v>
@@ -47850,10 +47871,10 @@
     </row>
     <row r="802" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>20</v>
@@ -47898,10 +47919,10 @@
     </row>
     <row r="803" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>20</v>
@@ -47946,10 +47967,10 @@
     </row>
     <row r="804" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>20</v>
@@ -47994,10 +48015,10 @@
     </row>
     <row r="805" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>20</v>
@@ -48042,10 +48063,10 @@
     </row>
     <row r="806" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>20</v>
@@ -48090,10 +48111,10 @@
     </row>
     <row r="807" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>20</v>
@@ -48123,7 +48144,7 @@
         <v>45317</v>
       </c>
       <c r="N807" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="O807" s="2" t="s">
         <v>310</v>
@@ -48138,10 +48159,10 @@
     </row>
     <row r="808" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>20</v>
@@ -48186,10 +48207,10 @@
     </row>
     <row r="809" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>20</v>
@@ -48234,10 +48255,10 @@
     </row>
     <row r="810" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>20</v>
@@ -48269,7 +48290,7 @@
         <v>45149</v>
       </c>
       <c r="N810" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="O810" s="2" t="s">
         <v>310</v>
@@ -48286,10 +48307,10 @@
     </row>
     <row r="811" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>20</v>
@@ -48321,7 +48342,7 @@
         <v>45281</v>
       </c>
       <c r="N811" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="O811" s="2" t="s">
         <v>310</v>
@@ -48338,10 +48359,10 @@
     </row>
     <row r="812" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>20</v>
@@ -48386,10 +48407,10 @@
     </row>
     <row r="813" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>20</v>
@@ -48438,10 +48459,10 @@
     </row>
     <row r="814" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>20</v>
@@ -48486,10 +48507,10 @@
     </row>
     <row r="815" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>20</v>
@@ -48534,10 +48555,10 @@
     </row>
     <row r="816" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>20</v>
@@ -48582,10 +48603,10 @@
     </row>
     <row r="817" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>20</v>
@@ -48630,10 +48651,10 @@
     </row>
     <row r="818" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>20</v>
@@ -48678,10 +48699,10 @@
     </row>
     <row r="819" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>20</v>
@@ -48711,7 +48732,7 @@
       </c>
       <c r="M819" s="3"/>
       <c r="N819" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="O819" s="2" t="s">
         <v>28</v>
@@ -48728,10 +48749,10 @@
     </row>
     <row r="820" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>20</v>
@@ -48776,10 +48797,10 @@
     </row>
     <row r="821" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>20</v>
@@ -48824,10 +48845,10 @@
     </row>
     <row r="822" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>20</v>
@@ -48850,7 +48871,7 @@
         <v>25</v>
       </c>
       <c r="K822" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="L822" s="3">
         <v>45020</v>
@@ -48874,10 +48895,10 @@
     </row>
     <row r="823" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>20</v>
@@ -48907,7 +48928,7 @@
       </c>
       <c r="M823" s="3"/>
       <c r="N823" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O823" s="2" t="s">
         <v>28</v>
@@ -48924,10 +48945,10 @@
     </row>
     <row r="824" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>20</v>
@@ -48972,10 +48993,10 @@
     </row>
     <row r="825" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>20</v>
@@ -49020,10 +49041,10 @@
     </row>
     <row r="826" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C826" s="2" t="s">
         <v>20</v>
@@ -49068,10 +49089,10 @@
     </row>
     <row r="827" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>20</v>
@@ -49118,10 +49139,10 @@
     </row>
     <row r="828" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C828" s="2" t="s">
         <v>20</v>
@@ -49166,10 +49187,10 @@
     </row>
     <row r="829" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>20</v>
@@ -49216,10 +49237,10 @@
     </row>
     <row r="830" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>20</v>
@@ -49242,7 +49263,7 @@
         <v>25</v>
       </c>
       <c r="K830" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L830" s="3">
         <v>45055</v>
@@ -49266,10 +49287,10 @@
     </row>
     <row r="831" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>20</v>
@@ -49316,10 +49337,10 @@
     </row>
     <row r="832" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>20</v>
@@ -49366,10 +49387,10 @@
     </row>
     <row r="833" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>20</v>
@@ -49416,10 +49437,10 @@
     </row>
     <row r="834" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>20</v>
@@ -49464,10 +49485,10 @@
     </row>
     <row r="835" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>20</v>
@@ -49512,10 +49533,10 @@
     </row>
     <row r="836" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>20</v>
@@ -49560,10 +49581,10 @@
     </row>
     <row r="837" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>20</v>
@@ -49610,10 +49631,10 @@
     </row>
     <row r="838" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>20</v>
@@ -49643,7 +49664,7 @@
       </c>
       <c r="M838" s="3"/>
       <c r="N838" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O838" s="2" t="s">
         <v>28</v>
@@ -49660,10 +49681,10 @@
     </row>
     <row r="839" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>20</v>
@@ -49708,10 +49729,10 @@
     </row>
     <row r="840" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>20</v>
@@ -49758,10 +49779,10 @@
     </row>
     <row r="841" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>20</v>
@@ -49806,10 +49827,10 @@
     </row>
     <row r="842" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C842" s="2" t="s">
         <v>20</v>
@@ -49854,10 +49875,10 @@
     </row>
     <row r="843" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>20</v>
@@ -49904,10 +49925,10 @@
     </row>
     <row r="844" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>20</v>
@@ -49954,10 +49975,10 @@
     </row>
     <row r="845" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>20</v>
@@ -50002,10 +50023,10 @@
     </row>
     <row r="846" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>20</v>
@@ -50052,10 +50073,10 @@
     </row>
     <row r="847" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>20</v>
@@ -50102,10 +50123,10 @@
     </row>
     <row r="848" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>20</v>
@@ -50152,10 +50173,10 @@
     </row>
     <row r="849" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>20</v>
@@ -50178,7 +50199,7 @@
         <v>25</v>
       </c>
       <c r="K849" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="L849" s="3">
         <v>45047</v>
@@ -50202,10 +50223,10 @@
     </row>
     <row r="850" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>20</v>
@@ -50252,10 +50273,10 @@
     </row>
     <row r="851" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>20</v>
@@ -50302,10 +50323,10 @@
     </row>
     <row r="852" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>20</v>
@@ -50352,10 +50373,10 @@
     </row>
     <row r="853" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>20</v>
@@ -50402,10 +50423,10 @@
     </row>
     <row r="854" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>20</v>
@@ -50452,10 +50473,10 @@
     </row>
     <row r="855" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>20</v>
@@ -50500,10 +50521,10 @@
     </row>
     <row r="856" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>20</v>
@@ -50548,10 +50569,10 @@
     </row>
     <row r="857" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>20</v>
@@ -50598,10 +50619,10 @@
     </row>
     <row r="858" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>20</v>
@@ -50624,14 +50645,14 @@
         <v>25</v>
       </c>
       <c r="K858" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="L858" s="3">
         <v>45083</v>
       </c>
       <c r="M858" s="3"/>
       <c r="N858" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="O858" s="2" t="s">
         <v>28</v>
@@ -50648,10 +50669,10 @@
     </row>
     <row r="859" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>20</v>
@@ -50681,7 +50702,7 @@
       </c>
       <c r="M859" s="3"/>
       <c r="N859" s="2" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="O859" s="2" t="s">
         <v>28</v>
@@ -50698,10 +50719,10 @@
     </row>
     <row r="860" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>20</v>
@@ -50748,10 +50769,10 @@
     </row>
     <row r="861" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>20</v>
@@ -50798,10 +50819,10 @@
     </row>
     <row r="862" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>20</v>
@@ -50848,10 +50869,10 @@
     </row>
     <row r="863" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>20</v>
@@ -50898,10 +50919,10 @@
     </row>
     <row r="864" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>20</v>
@@ -50937,7 +50958,7 @@
         <v>28</v>
       </c>
       <c r="P864" s="4">
-        <v>74178.89</v>
+        <v>73924.179999999993</v>
       </c>
       <c r="Q864" s="5">
         <v>0.7</v>
@@ -50948,10 +50969,10 @@
     </row>
     <row r="865" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>20</v>
@@ -50987,7 +51008,7 @@
         <v>28</v>
       </c>
       <c r="P865" s="4">
-        <v>74178.89</v>
+        <v>73924.179999999993</v>
       </c>
       <c r="Q865" s="5">
         <v>0.7</v>
@@ -50998,10 +51019,10 @@
     </row>
     <row r="866" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>20</v>
@@ -51037,7 +51058,7 @@
         <v>28</v>
       </c>
       <c r="P866" s="4">
-        <v>74178.89</v>
+        <v>73924.179999999993</v>
       </c>
       <c r="Q866" s="5">
         <v>0.7</v>
@@ -51048,10 +51069,10 @@
     </row>
     <row r="867" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>20</v>
@@ -51098,10 +51119,10 @@
     </row>
     <row r="868" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>20</v>
@@ -51148,10 +51169,10 @@
     </row>
     <row r="869" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>20</v>
@@ -51198,10 +51219,10 @@
     </row>
     <row r="870" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>20</v>
@@ -51231,7 +51252,7 @@
       </c>
       <c r="M870" s="3"/>
       <c r="N870" s="2" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="O870" s="2" t="s">
         <v>28</v>
@@ -51248,10 +51269,10 @@
     </row>
     <row r="871" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>20</v>
@@ -51298,10 +51319,10 @@
     </row>
     <row r="872" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>20</v>
@@ -51337,7 +51358,7 @@
         <v>28</v>
       </c>
       <c r="P872" s="4">
-        <v>79938.25</v>
+        <v>79663.77</v>
       </c>
       <c r="Q872" s="5">
         <v>0.7</v>
@@ -51348,10 +51369,10 @@
     </row>
     <row r="873" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>20</v>
@@ -51381,7 +51402,7 @@
       </c>
       <c r="M873" s="3"/>
       <c r="N873" s="2" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O873" s="2" t="s">
         <v>310</v>
@@ -51398,10 +51419,10 @@
     </row>
     <row r="874" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>20</v>
@@ -51448,10 +51469,10 @@
     </row>
     <row r="875" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>20</v>
@@ -51498,10 +51519,10 @@
     </row>
     <row r="876" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>20</v>
@@ -51548,10 +51569,10 @@
     </row>
     <row r="877" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>20</v>
@@ -51598,10 +51619,10 @@
     </row>
     <row r="878" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>20</v>
@@ -51648,10 +51669,10 @@
     </row>
     <row r="879" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>20</v>
@@ -51698,10 +51719,10 @@
     </row>
     <row r="880" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>20</v>
@@ -51748,10 +51769,10 @@
     </row>
     <row r="881" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>20</v>
@@ -51787,7 +51808,7 @@
         <v>28</v>
       </c>
       <c r="P881" s="4">
-        <v>109834.75</v>
+        <v>109457.61</v>
       </c>
       <c r="Q881" s="5">
         <v>0.65</v>
@@ -51798,10 +51819,10 @@
     </row>
     <row r="882" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>20</v>
@@ -51846,10 +51867,10 @@
     </row>
     <row r="883" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>20</v>
@@ -51885,7 +51906,7 @@
         <v>28</v>
       </c>
       <c r="P883" s="4">
-        <v>96518.84</v>
+        <v>95837.71</v>
       </c>
       <c r="Q883" s="5">
         <v>0.7</v>
@@ -51896,10 +51917,10 @@
     </row>
     <row r="884" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>20</v>
@@ -51946,10 +51967,10 @@
     </row>
     <row r="885" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>20</v>
@@ -51996,10 +52017,10 @@
     </row>
     <row r="886" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>20</v>
@@ -52022,7 +52043,7 @@
         <v>25</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L886" s="3">
         <v>45181</v>
@@ -52046,10 +52067,10 @@
     </row>
     <row r="887" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>20</v>
@@ -52096,10 +52117,10 @@
     </row>
     <row r="888" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>20</v>
@@ -52129,7 +52150,7 @@
       </c>
       <c r="M888" s="3"/>
       <c r="N888" s="2" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="O888" s="2" t="s">
         <v>28</v>
@@ -52146,10 +52167,10 @@
     </row>
     <row r="889" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>20</v>
@@ -52179,7 +52200,7 @@
       </c>
       <c r="M889" s="3"/>
       <c r="N889" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="O889" s="2" t="s">
         <v>28</v>
@@ -52196,10 +52217,10 @@
     </row>
     <row r="890" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>20</v>
@@ -52246,10 +52267,10 @@
     </row>
     <row r="891" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>20</v>
@@ -52296,10 +52317,10 @@
     </row>
     <row r="892" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>20</v>
@@ -52346,10 +52367,10 @@
     </row>
     <row r="893" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>20</v>
@@ -52396,10 +52417,10 @@
     </row>
     <row r="894" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>20</v>
@@ -52446,10 +52467,10 @@
     </row>
     <row r="895" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>20</v>
@@ -52479,7 +52500,7 @@
       </c>
       <c r="M895" s="3"/>
       <c r="N895" s="2" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="O895" s="2" t="s">
         <v>28</v>
@@ -52496,10 +52517,10 @@
     </row>
     <row r="896" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>20</v>
@@ -52535,7 +52556,7 @@
         <v>28</v>
       </c>
       <c r="P896" s="4">
-        <v>95939.27</v>
+        <v>95609.84</v>
       </c>
       <c r="Q896" s="5">
         <v>0.65</v>
@@ -52546,10 +52567,10 @@
     </row>
     <row r="897" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>20</v>
@@ -52594,10 +52615,10 @@
     </row>
     <row r="898" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>20</v>
@@ -52644,10 +52665,10 @@
     </row>
     <row r="899" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>20</v>
@@ -52694,10 +52715,10 @@
     </row>
     <row r="900" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>20</v>
@@ -52744,10 +52765,10 @@
     </row>
     <row r="901" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>20</v>
@@ -52770,7 +52791,7 @@
         <v>25</v>
       </c>
       <c r="K901" s="2" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="L901" s="3">
         <v>45216</v>
@@ -52794,10 +52815,10 @@
     </row>
     <row r="902" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>20</v>
@@ -52844,10 +52865,10 @@
     </row>
     <row r="903" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>20</v>
@@ -52894,10 +52915,10 @@
     </row>
     <row r="904" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>20</v>
@@ -52944,10 +52965,10 @@
     </row>
     <row r="905" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>20</v>
@@ -52994,10 +53015,10 @@
     </row>
     <row r="906" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>20</v>
@@ -53044,10 +53065,10 @@
     </row>
     <row r="907" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>20</v>
@@ -53077,7 +53098,7 @@
       </c>
       <c r="M907" s="3"/>
       <c r="N907" s="2" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="O907" s="2" t="s">
         <v>28</v>
@@ -53094,10 +53115,10 @@
     </row>
     <row r="908" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>20</v>
@@ -53144,10 +53165,10 @@
     </row>
     <row r="909" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>20</v>
@@ -53177,7 +53198,7 @@
       </c>
       <c r="M909" s="3"/>
       <c r="N909" s="2" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="O909" s="2" t="s">
         <v>28</v>
@@ -53194,10 +53215,10 @@
     </row>
     <row r="910" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>20</v>
@@ -53227,7 +53248,7 @@
       </c>
       <c r="M910" s="3"/>
       <c r="N910" s="2" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="O910" s="2" t="s">
         <v>28</v>
@@ -53244,10 +53265,10 @@
     </row>
     <row r="911" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>20</v>
@@ -53294,10 +53315,10 @@
     </row>
     <row r="912" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>20</v>
@@ -53344,10 +53365,10 @@
     </row>
     <row r="913" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>20</v>
@@ -53394,10 +53415,10 @@
     </row>
     <row r="914" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>20</v>
@@ -53444,10 +53465,10 @@
     </row>
     <row r="915" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>20</v>
@@ -53492,10 +53513,10 @@
     </row>
     <row r="916" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>20</v>
@@ -53525,7 +53546,7 @@
       </c>
       <c r="M916" s="3"/>
       <c r="N916" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="O916" s="2" t="s">
         <v>28</v>
@@ -53542,10 +53563,10 @@
     </row>
     <row r="917" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>20</v>
@@ -53592,10 +53613,10 @@
     </row>
     <row r="918" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>20</v>
@@ -53642,10 +53663,10 @@
     </row>
     <row r="919" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>20</v>
@@ -53692,10 +53713,10 @@
     </row>
     <row r="920" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>20</v>
@@ -53742,10 +53763,10 @@
     </row>
     <row r="921" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>20</v>
@@ -53792,10 +53813,10 @@
     </row>
     <row r="922" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>20</v>
@@ -53842,10 +53863,10 @@
     </row>
     <row r="923" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>20</v>
@@ -53881,7 +53902,7 @@
         <v>28</v>
       </c>
       <c r="P923" s="4">
-        <v>73045.47</v>
+        <v>72794.649999999994</v>
       </c>
       <c r="Q923" s="5">
         <v>0.7</v>
@@ -53892,10 +53913,10 @@
     </row>
     <row r="924" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>20</v>
@@ -53925,7 +53946,7 @@
       </c>
       <c r="M924" s="3"/>
       <c r="N924" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O924" s="2" t="s">
         <v>310</v>
@@ -53942,10 +53963,10 @@
     </row>
     <row r="925" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>20</v>
@@ -53968,7 +53989,7 @@
         <v>25</v>
       </c>
       <c r="K925" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="L925" s="3">
         <v>45363</v>
@@ -53992,10 +54013,10 @@
     </row>
     <row r="926" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>20</v>
@@ -54042,10 +54063,10 @@
     </row>
     <row r="927" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>20</v>
@@ -54068,20 +54089,20 @@
         <v>25</v>
       </c>
       <c r="K927" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L927" s="3">
         <v>45352</v>
       </c>
       <c r="M927" s="3"/>
       <c r="N927" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="O927" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P927" s="4">
-        <v>276642.53999999998</v>
+        <v>276590.81</v>
       </c>
       <c r="Q927" s="5">
         <v>0.55000000000000004</v>
@@ -54092,10 +54113,10 @@
     </row>
     <row r="928" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>20</v>
@@ -54118,7 +54139,7 @@
         <v>25</v>
       </c>
       <c r="K928" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L928" s="3">
         <v>45352</v>
@@ -54131,7 +54152,7 @@
         <v>28</v>
       </c>
       <c r="P928" s="4">
-        <v>144307.51999999999</v>
+        <v>144280.54</v>
       </c>
       <c r="Q928" s="5">
         <v>0.6</v>
@@ -54142,10 +54163,10 @@
     </row>
     <row r="929" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>20</v>
@@ -54168,7 +54189,7 @@
         <v>25</v>
       </c>
       <c r="K929" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L929" s="3">
         <v>45352</v>
@@ -54181,7 +54202,7 @@
         <v>28</v>
       </c>
       <c r="P929" s="4">
-        <v>108751.87</v>
+        <v>108731.54</v>
       </c>
       <c r="Q929" s="5">
         <v>0.65</v>
@@ -54192,10 +54213,10 @@
     </row>
     <row r="930" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>20</v>
@@ -54218,7 +54239,7 @@
         <v>25</v>
       </c>
       <c r="K930" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L930" s="3">
         <v>45352</v>
@@ -54231,7 +54252,7 @@
         <v>28</v>
       </c>
       <c r="P930" s="4">
-        <v>111979.35</v>
+        <v>111958.42</v>
       </c>
       <c r="Q930" s="5">
         <v>0.65</v>
@@ -54242,10 +54263,10 @@
     </row>
     <row r="931" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>20</v>
@@ -54268,20 +54289,20 @@
         <v>25</v>
       </c>
       <c r="K931" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L931" s="3">
         <v>45352</v>
       </c>
       <c r="M931" s="3"/>
       <c r="N931" s="2" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="O931" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P931" s="4">
-        <v>171322.49</v>
+        <v>171290.45</v>
       </c>
       <c r="Q931" s="5">
         <v>0.6</v>
@@ -54292,10 +54313,10 @@
     </row>
     <row r="932" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>20</v>
@@ -54318,20 +54339,20 @@
         <v>25</v>
       </c>
       <c r="K932" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L932" s="3">
         <v>45352</v>
       </c>
       <c r="M932" s="3"/>
       <c r="N932" s="2" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="O932" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P932" s="4">
-        <v>73329.759999999995</v>
+        <v>73316.039999999994</v>
       </c>
       <c r="Q932" s="5">
         <v>0.65</v>
@@ -54342,10 +54363,10 @@
     </row>
     <row r="933" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>20</v>
@@ -54368,7 +54389,7 @@
         <v>25</v>
       </c>
       <c r="K933" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L933" s="3">
         <v>45352</v>
@@ -54381,7 +54402,7 @@
         <v>28</v>
       </c>
       <c r="P933" s="4">
-        <v>83966.58</v>
+        <v>83950.88</v>
       </c>
       <c r="Q933" s="5">
         <v>0.7</v>
@@ -54392,10 +54413,10 @@
     </row>
     <row r="934" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>20</v>
@@ -54418,7 +54439,7 @@
         <v>25</v>
       </c>
       <c r="K934" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L934" s="3">
         <v>45352</v>
@@ -54431,7 +54452,7 @@
         <v>28</v>
       </c>
       <c r="P934" s="4">
-        <v>85887.08</v>
+        <v>85871.02</v>
       </c>
       <c r="Q934" s="5">
         <v>0.7</v>
@@ -54442,10 +54463,10 @@
     </row>
     <row r="935" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>20</v>
@@ -54468,7 +54489,7 @@
         <v>25</v>
       </c>
       <c r="K935" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L935" s="3">
         <v>45352</v>
@@ -54481,7 +54502,7 @@
         <v>28</v>
       </c>
       <c r="P935" s="4">
-        <v>102788.64</v>
+        <v>102769.42</v>
       </c>
       <c r="Q935" s="5">
         <v>0.65</v>
@@ -54492,10 +54513,10 @@
     </row>
     <row r="936" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>20</v>
@@ -54518,7 +54539,7 @@
         <v>25</v>
       </c>
       <c r="K936" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L936" s="3">
         <v>45352</v>
@@ -54531,7 +54552,7 @@
         <v>28</v>
       </c>
       <c r="P936" s="4">
-        <v>81866.67</v>
+        <v>81851.360000000001</v>
       </c>
       <c r="Q936" s="5">
         <v>0.7</v>
@@ -54542,10 +54563,10 @@
     </row>
     <row r="937" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>20</v>
@@ -54568,7 +54589,7 @@
         <v>25</v>
       </c>
       <c r="K937" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L937" s="3">
         <v>45352</v>
@@ -54581,7 +54602,7 @@
         <v>28</v>
       </c>
       <c r="P937" s="4">
-        <v>69293.2</v>
+        <v>69280.25</v>
       </c>
       <c r="Q937" s="5">
         <v>0.7</v>
@@ -54592,10 +54613,10 @@
     </row>
     <row r="938" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>20</v>
@@ -54618,7 +54639,7 @@
         <v>25</v>
       </c>
       <c r="K938" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L938" s="3">
         <v>45352</v>
@@ -54631,7 +54652,7 @@
         <v>28</v>
       </c>
       <c r="P938" s="4">
-        <v>105872.3</v>
+        <v>105852.51</v>
       </c>
       <c r="Q938" s="5">
         <v>0.65</v>
@@ -54642,10 +54663,10 @@
     </row>
     <row r="939" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>20</v>
@@ -54668,7 +54689,7 @@
         <v>25</v>
       </c>
       <c r="K939" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L939" s="3">
         <v>45352</v>
@@ -54681,7 +54702,7 @@
         <v>28</v>
       </c>
       <c r="P939" s="4">
-        <v>72757.86</v>
+        <v>72744.259999999995</v>
       </c>
       <c r="Q939" s="5">
         <v>0.7</v>
@@ -54692,10 +54713,10 @@
     </row>
     <row r="940" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>20</v>
@@ -54718,20 +54739,20 @@
         <v>25</v>
       </c>
       <c r="K940" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L940" s="3">
         <v>45352</v>
       </c>
       <c r="M940" s="3"/>
       <c r="N940" s="2" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="O940" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P940" s="4">
-        <v>36093.910000000003</v>
+        <v>36087.160000000003</v>
       </c>
       <c r="Q940" s="5">
         <v>0.7</v>
@@ -54742,10 +54763,10 @@
     </row>
     <row r="941" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>20</v>
@@ -54768,20 +54789,20 @@
         <v>25</v>
       </c>
       <c r="K941" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L941" s="3">
         <v>45352</v>
       </c>
       <c r="M941" s="3"/>
       <c r="N941" s="2" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="O941" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P941" s="4">
-        <v>36333.379999999997</v>
+        <v>36326.589999999997</v>
       </c>
       <c r="Q941" s="5">
         <v>0.7</v>
@@ -54792,10 +54813,10 @@
     </row>
     <row r="942" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>20</v>
@@ -54842,10 +54863,10 @@
     </row>
     <row r="943" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>20</v>
@@ -54892,10 +54913,10 @@
     </row>
     <row r="944" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>20</v>
@@ -54918,7 +54939,7 @@
         <v>25</v>
       </c>
       <c r="K944" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L944" s="3">
         <v>45384</v>
@@ -54931,7 +54952,7 @@
         <v>28</v>
       </c>
       <c r="P944" s="4">
-        <v>81182.27</v>
+        <v>81167.09</v>
       </c>
       <c r="Q944" s="5">
         <v>0.65</v>
@@ -54942,10 +54963,10 @@
     </row>
     <row r="945" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>20</v>
@@ -54990,10 +55011,10 @@
     </row>
     <row r="946" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>20</v>
@@ -55038,10 +55059,10 @@
     </row>
     <row r="947" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>20</v>
@@ -55086,10 +55107,10 @@
     </row>
     <row r="948" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>20</v>
@@ -55134,10 +55155,10 @@
     </row>
     <row r="949" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>20</v>
@@ -55178,16 +55199,18 @@
         <v>15600</v>
       </c>
       <c r="Q949" s="5">
-        <v>0</v>
-      </c>
-      <c r="R949" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="R949" s="2" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="950" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>20</v>
@@ -55217,7 +55240,7 @@
       </c>
       <c r="M950" s="3"/>
       <c r="N950" s="2" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="O950" s="2" t="s">
         <v>310</v>
@@ -55234,10 +55257,10 @@
     </row>
     <row r="951" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>20</v>
@@ -55267,7 +55290,7 @@
       </c>
       <c r="M951" s="3"/>
       <c r="N951" s="2" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="O951" s="2" t="s">
         <v>28</v>
@@ -55284,10 +55307,10 @@
     </row>
     <row r="952" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>20</v>
@@ -55317,7 +55340,7 @@
       </c>
       <c r="M952" s="3"/>
       <c r="N952" s="2" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="O952" s="2" t="s">
         <v>28</v>
@@ -55329,15 +55352,15 @@
         <v>0.69</v>
       </c>
       <c r="R952" s="2" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="953" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>20</v>
@@ -55367,7 +55390,7 @@
       </c>
       <c r="M953" s="3"/>
       <c r="N953" s="2" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="O953" s="2" t="s">
         <v>28</v>
@@ -55384,10 +55407,10 @@
     </row>
     <row r="954" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C954" s="2" t="s">
         <v>20</v>
@@ -55434,10 +55457,10 @@
     </row>
     <row r="955" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>20</v>
@@ -55482,10 +55505,10 @@
     </row>
     <row r="956" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>20</v>
@@ -55534,10 +55557,10 @@
     </row>
     <row r="957" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>20</v>
@@ -55582,10 +55605,10 @@
     </row>
     <row r="958" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>20</v>
@@ -55594,34 +55617,36 @@
         <v>114</v>
       </c>
       <c r="E958" s="2"/>
-      <c r="F958" s="2"/>
+      <c r="F958" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G958" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H958" s="2" t="s">
-        <v>1235</v>
+        <v>309</v>
       </c>
       <c r="I958" s="2"/>
       <c r="J958" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="K958" s="2" t="s">
         <v>61</v>
       </c>
       <c r="L958" s="3">
-        <v>45447</v>
+        <v>45572</v>
       </c>
       <c r="M958" s="3">
         <v>45538</v>
       </c>
       <c r="N958" s="2" t="s">
-        <v>1236</v>
+        <v>309</v>
       </c>
       <c r="O958" s="2" t="s">
         <v>310</v>
       </c>
       <c r="P958" s="4">
-        <v>41600</v>
+        <v>20800</v>
       </c>
       <c r="Q958" s="5">
         <v>0</v>
@@ -55630,10 +55655,10 @@
     </row>
     <row r="959" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>20</v>
@@ -55682,10 +55707,10 @@
     </row>
     <row r="960" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>20</v>
@@ -55734,10 +55759,10 @@
     </row>
     <row r="961" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>20</v>
@@ -55782,10 +55807,10 @@
     </row>
     <row r="962" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>20</v>
@@ -55834,10 +55859,10 @@
     </row>
     <row r="963" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="C963" s="2" t="s">
         <v>20</v>
@@ -55882,10 +55907,10 @@
     </row>
     <row r="964" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>20</v>
@@ -55906,7 +55931,7 @@
         <v>25</v>
       </c>
       <c r="K964" s="2" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="L964" s="3">
         <v>45433</v>
@@ -55930,10 +55955,10 @@
     </row>
     <row r="965" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>20</v>
@@ -55978,10 +56003,10 @@
     </row>
     <row r="966" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>20</v>
@@ -56026,10 +56051,10 @@
     </row>
     <row r="967" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>20</v>
@@ -56074,10 +56099,10 @@
     </row>
     <row r="968" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>20</v>
@@ -56122,10 +56147,10 @@
     </row>
     <row r="969" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>20</v>
@@ -56170,10 +56195,10 @@
     </row>
     <row r="970" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>20</v>
@@ -56220,10 +56245,10 @@
     </row>
     <row r="971" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>20</v>
@@ -56268,10 +56293,10 @@
     </row>
     <row r="972" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>20</v>
@@ -56316,10 +56341,10 @@
     </row>
     <row r="973" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>20</v>
@@ -56364,10 +56389,10 @@
     </row>
     <row r="974" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>20</v>
@@ -56414,10 +56439,10 @@
     </row>
     <row r="975" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>20</v>
@@ -56462,10 +56487,10 @@
     </row>
     <row r="976" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>20</v>
@@ -56510,10 +56535,10 @@
     </row>
     <row r="977" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>20</v>
@@ -56558,10 +56583,10 @@
     </row>
     <row r="978" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>20</v>
@@ -56606,10 +56631,10 @@
     </row>
     <row r="979" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>20</v>
@@ -56658,10 +56683,10 @@
     </row>
     <row r="980" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>20</v>
@@ -56706,10 +56731,10 @@
     </row>
     <row r="981" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>20</v>
@@ -56754,10 +56779,10 @@
     </row>
     <row r="982" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>20</v>
@@ -56804,10 +56829,10 @@
     </row>
     <row r="983" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>20</v>
@@ -56852,10 +56877,10 @@
     </row>
     <row r="984" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>20</v>
@@ -56900,10 +56925,10 @@
     </row>
     <row r="985" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>20</v>
@@ -56950,10 +56975,10 @@
     </row>
     <row r="986" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>20</v>
@@ -56983,7 +57008,7 @@
       </c>
       <c r="M986" s="3"/>
       <c r="N986" s="2" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="O986" s="2" t="s">
         <v>28</v>
@@ -57000,10 +57025,10 @@
     </row>
     <row r="987" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>20</v>
@@ -57050,10 +57075,10 @@
     </row>
     <row r="988" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>20</v>
@@ -57083,7 +57108,7 @@
       </c>
       <c r="M988" s="3"/>
       <c r="N988" s="2" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="O988" s="2" t="s">
         <v>28</v>
@@ -57100,10 +57125,10 @@
     </row>
     <row r="989" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>20</v>
@@ -57148,10 +57173,10 @@
     </row>
     <row r="990" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>20</v>
@@ -57196,10 +57221,10 @@
     </row>
     <row r="991" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>20</v>
@@ -57244,10 +57269,10 @@
     </row>
     <row r="992" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>20</v>
@@ -57292,10 +57317,10 @@
     </row>
     <row r="993" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>20</v>
@@ -57340,10 +57365,10 @@
     </row>
     <row r="994" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>20</v>
@@ -57390,10 +57415,10 @@
     </row>
     <row r="995" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>20</v>
@@ -57438,10 +57463,10 @@
     </row>
     <row r="996" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>20</v>
@@ -57488,10 +57513,10 @@
     </row>
     <row r="997" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A997" s="2" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>20</v>
@@ -57536,10 +57561,10 @@
     </row>
     <row r="998" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A998" s="2" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>20</v>
@@ -57586,10 +57611,10 @@
     </row>
     <row r="999" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>20</v>
@@ -57636,10 +57661,10 @@
     </row>
     <row r="1000" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>20</v>
@@ -57684,10 +57709,10 @@
     </row>
     <row r="1001" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>20</v>
@@ -57717,7 +57742,7 @@
       </c>
       <c r="M1001" s="3"/>
       <c r="N1001" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1001" s="2" t="s">
         <v>28</v>
@@ -57734,10 +57759,10 @@
     </row>
     <row r="1002" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>20</v>
@@ -57767,7 +57792,7 @@
       </c>
       <c r="M1002" s="3"/>
       <c r="N1002" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1002" s="2" t="s">
         <v>28</v>
@@ -57784,10 +57809,10 @@
     </row>
     <row r="1003" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>20</v>
@@ -57834,10 +57859,10 @@
     </row>
     <row r="1004" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>20</v>
@@ -57867,7 +57892,7 @@
       </c>
       <c r="M1004" s="3"/>
       <c r="N1004" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1004" s="2" t="s">
         <v>28</v>
@@ -57884,10 +57909,10 @@
     </row>
     <row r="1005" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C1005" s="2" t="s">
         <v>20</v>
@@ -57917,7 +57942,7 @@
       </c>
       <c r="M1005" s="3"/>
       <c r="N1005" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1005" s="2" t="s">
         <v>28</v>
@@ -57934,10 +57959,10 @@
     </row>
     <row r="1006" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C1006" s="2" t="s">
         <v>20</v>
@@ -57967,7 +57992,7 @@
       </c>
       <c r="M1006" s="3"/>
       <c r="N1006" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1006" s="2" t="s">
         <v>28</v>
@@ -57984,10 +58009,10 @@
     </row>
     <row r="1007" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>20</v>
@@ -58034,10 +58059,10 @@
     </row>
     <row r="1008" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B1008" s="2" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>20</v>
@@ -58082,10 +58107,10 @@
     </row>
     <row r="1009" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="C1009" s="2" t="s">
         <v>20</v>
@@ -58108,7 +58133,7 @@
         <v>25</v>
       </c>
       <c r="K1009" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1009" s="3">
         <v>45446</v>
@@ -58121,7 +58146,7 @@
         <v>28</v>
       </c>
       <c r="P1009" s="4">
-        <v>69452.23</v>
+        <v>69439.240000000005</v>
       </c>
       <c r="Q1009" s="5">
         <v>0.7</v>
@@ -58132,10 +58157,10 @@
     </row>
     <row r="1010" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C1010" s="2" t="s">
         <v>20</v>
@@ -58158,14 +58183,14 @@
         <v>25</v>
       </c>
       <c r="K1010" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="L1010" s="3">
         <v>45454</v>
       </c>
       <c r="M1010" s="3"/>
       <c r="N1010" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O1010" s="2" t="s">
         <v>28</v>
@@ -58182,10 +58207,10 @@
     </row>
     <row r="1011" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C1011" s="2" t="s">
         <v>20</v>
@@ -58208,7 +58233,7 @@
         <v>25</v>
       </c>
       <c r="K1011" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1011" s="3">
         <v>45446</v>
@@ -58221,7 +58246,7 @@
         <v>28</v>
       </c>
       <c r="P1011" s="4">
-        <v>69452.23</v>
+        <v>69439.240000000005</v>
       </c>
       <c r="Q1011" s="5">
         <v>0.7</v>
@@ -58232,10 +58257,10 @@
     </row>
     <row r="1012" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C1012" s="2" t="s">
         <v>20</v>
@@ -58258,7 +58283,7 @@
         <v>25</v>
       </c>
       <c r="K1012" s="2" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L1012" s="3">
         <v>45468</v>
@@ -58285,7 +58310,7 @@
         <v>1430</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C1013" s="2" t="s">
         <v>20</v>
@@ -58332,10 +58357,10 @@
     </row>
     <row r="1014" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C1014" s="2" t="s">
         <v>20</v>
@@ -58358,7 +58383,7 @@
         <v>25</v>
       </c>
       <c r="K1014" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1014" s="3">
         <v>45467</v>
@@ -58371,7 +58396,7 @@
         <v>28</v>
       </c>
       <c r="P1014" s="4">
-        <v>69332.91</v>
+        <v>69319.94</v>
       </c>
       <c r="Q1014" s="5">
         <v>0.7</v>
@@ -58382,10 +58407,10 @@
     </row>
     <row r="1015" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="B1015" s="2" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C1015" s="2" t="s">
         <v>20</v>
@@ -58408,7 +58433,7 @@
         <v>25</v>
       </c>
       <c r="K1015" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1015" s="3">
         <v>45505</v>
@@ -58421,7 +58446,7 @@
         <v>28</v>
       </c>
       <c r="P1015" s="4">
-        <v>69293.2</v>
+        <v>69280.25</v>
       </c>
       <c r="Q1015" s="5">
         <v>0.7</v>
@@ -58432,10 +58457,10 @@
     </row>
     <row r="1016" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="C1016" s="2" t="s">
         <v>20</v>
@@ -58458,7 +58483,7 @@
         <v>25</v>
       </c>
       <c r="K1016" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1016" s="3">
         <v>45488</v>
@@ -58471,7 +58496,7 @@
         <v>28</v>
       </c>
       <c r="P1016" s="4">
-        <v>69293.2</v>
+        <v>69280.25</v>
       </c>
       <c r="Q1016" s="5">
         <v>0.7</v>
@@ -58482,10 +58507,10 @@
     </row>
     <row r="1017" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C1017" s="2" t="s">
         <v>20</v>
@@ -58508,7 +58533,7 @@
         <v>25</v>
       </c>
       <c r="K1017" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1017" s="3">
         <v>45453</v>
@@ -58521,7 +58546,7 @@
         <v>28</v>
       </c>
       <c r="P1017" s="4">
-        <v>82358.820000000007</v>
+        <v>82343.42</v>
       </c>
       <c r="Q1017" s="5">
         <v>0.7</v>
@@ -58532,10 +58557,10 @@
     </row>
     <row r="1018" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C1018" s="2" t="s">
         <v>20</v>
@@ -58558,7 +58583,7 @@
         <v>25</v>
       </c>
       <c r="K1018" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1018" s="3">
         <v>45467</v>
@@ -58571,7 +58596,7 @@
         <v>28</v>
       </c>
       <c r="P1018" s="4">
-        <v>82264.350000000006</v>
+        <v>82248.97</v>
       </c>
       <c r="Q1018" s="5">
         <v>0.7</v>
@@ -58582,10 +58607,10 @@
     </row>
     <row r="1019" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="C1019" s="2" t="s">
         <v>735</v>
@@ -58615,7 +58640,7 @@
         <v>45473</v>
       </c>
       <c r="N1019" s="2" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="O1019" s="2" t="s">
         <v>28</v>
@@ -58630,10 +58655,10 @@
     </row>
     <row r="1020" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C1020" s="2" t="s">
         <v>20</v>
@@ -58680,10 +58705,10 @@
     </row>
     <row r="1021" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="C1021" s="2" t="s">
         <v>20</v>
@@ -58713,7 +58738,7 @@
       </c>
       <c r="M1021" s="3"/>
       <c r="N1021" s="2" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="O1021" s="2" t="s">
         <v>28</v>
@@ -58730,10 +58755,10 @@
     </row>
     <row r="1022" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="B1022" s="2" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="C1022" s="2" t="s">
         <v>20</v>
@@ -58763,7 +58788,7 @@
       </c>
       <c r="M1022" s="3"/>
       <c r="N1022" s="2" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="O1022" s="2" t="s">
         <v>28</v>
@@ -58780,10 +58805,10 @@
     </row>
     <row r="1023" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="C1023" s="2" t="s">
         <v>20</v>
@@ -58806,20 +58831,20 @@
         <v>25</v>
       </c>
       <c r="K1023" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1023" s="3">
         <v>45467</v>
       </c>
       <c r="M1023" s="3"/>
       <c r="N1023" s="2" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="O1023" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P1023" s="4">
-        <v>55689.95</v>
+        <v>55679.53</v>
       </c>
       <c r="Q1023" s="5">
         <v>0.7</v>
@@ -58830,10 +58855,10 @@
     </row>
     <row r="1024" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="C1024" s="2" t="s">
         <v>20</v>
@@ -58856,20 +58881,20 @@
         <v>25</v>
       </c>
       <c r="K1024" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1024" s="3">
         <v>45467</v>
       </c>
       <c r="M1024" s="3"/>
       <c r="N1024" s="2" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="O1024" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P1024" s="4">
-        <v>35757.06</v>
+        <v>35750.370000000003</v>
       </c>
       <c r="Q1024" s="5">
         <v>0.4</v>
@@ -58880,10 +58905,10 @@
     </row>
     <row r="1025" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="C1025" s="2" t="s">
         <v>20</v>
@@ -58904,7 +58929,7 @@
         <v>25</v>
       </c>
       <c r="K1025" s="2" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="L1025" s="3">
         <v>45474</v>
@@ -58930,10 +58955,10 @@
     </row>
     <row r="1026" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>20</v>
@@ -58956,20 +58981,20 @@
         <v>25</v>
       </c>
       <c r="K1026" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1026" s="3">
         <v>45474</v>
       </c>
       <c r="M1026" s="3"/>
       <c r="N1026" s="2" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="O1026" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P1026" s="4">
-        <v>35736.58</v>
+        <v>35729.9</v>
       </c>
       <c r="Q1026" s="5">
         <v>0.4</v>
@@ -58980,10 +59005,10 @@
     </row>
     <row r="1027" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="C1027" s="2" t="s">
         <v>20</v>
@@ -59030,10 +59055,10 @@
     </row>
     <row r="1028" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C1028" s="2" t="s">
         <v>20</v>
@@ -59080,10 +59105,10 @@
     </row>
     <row r="1029" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C1029" s="2" t="s">
         <v>20</v>
@@ -59106,7 +59131,7 @@
         <v>25</v>
       </c>
       <c r="K1029" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1029" s="3">
         <v>45474</v>
@@ -59119,7 +59144,7 @@
         <v>28</v>
       </c>
       <c r="P1029" s="4">
-        <v>82217.240000000005</v>
+        <v>82201.87</v>
       </c>
       <c r="Q1029" s="5">
         <v>0.7</v>
@@ -59130,10 +59155,10 @@
     </row>
     <row r="1030" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C1030" s="2" t="s">
         <v>20</v>
@@ -59169,7 +59194,7 @@
         <v>28</v>
       </c>
       <c r="P1030" s="4">
-        <v>72018.34</v>
+        <v>71771.05</v>
       </c>
       <c r="Q1030" s="5">
         <v>0.7</v>
@@ -59180,10 +59205,10 @@
     </row>
     <row r="1031" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C1031" s="2" t="s">
         <v>20</v>
@@ -59213,7 +59238,7 @@
       </c>
       <c r="M1031" s="3"/>
       <c r="N1031" s="2" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="O1031" s="2" t="s">
         <v>28</v>
@@ -59230,10 +59255,10 @@
     </row>
     <row r="1032" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="C1032" s="2" t="s">
         <v>20</v>
@@ -59263,7 +59288,7 @@
       </c>
       <c r="M1032" s="3"/>
       <c r="N1032" s="2" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="O1032" s="2" t="s">
         <v>28</v>
@@ -59280,10 +59305,10 @@
     </row>
     <row r="1033" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="C1033" s="2" t="s">
         <v>20</v>
@@ -59330,10 +59355,10 @@
     </row>
     <row r="1034" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="B1034" s="2" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="C1034" s="2" t="s">
         <v>20</v>
@@ -59363,7 +59388,7 @@
       </c>
       <c r="M1034" s="3"/>
       <c r="N1034" s="2" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="O1034" s="2" t="s">
         <v>28</v>
@@ -59380,10 +59405,10 @@
     </row>
     <row r="1035" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C1035" s="2" t="s">
         <v>20</v>
@@ -59430,10 +59455,10 @@
     </row>
     <row r="1036" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="C1036" s="2" t="s">
         <v>20</v>
@@ -59480,10 +59505,10 @@
     </row>
     <row r="1037" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="B1037" s="2" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C1037" s="2" t="s">
         <v>20</v>
@@ -59530,10 +59555,10 @@
     </row>
     <row r="1038" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="C1038" s="2" t="s">
         <v>20</v>
@@ -59563,7 +59588,7 @@
       </c>
       <c r="M1038" s="3"/>
       <c r="N1038" s="2" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="O1038" s="2" t="s">
         <v>28</v>
@@ -59580,10 +59605,10 @@
     </row>
     <row r="1039" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C1039" s="2" t="s">
         <v>20</v>
@@ -59630,10 +59655,10 @@
     </row>
     <row r="1040" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C1040" s="2" t="s">
         <v>20</v>
@@ -59680,10 +59705,10 @@
     </row>
     <row r="1041" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C1041" s="2" t="s">
         <v>20</v>
@@ -59730,10 +59755,10 @@
     </row>
     <row r="1042" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="C1042" s="2" t="s">
         <v>20</v>
@@ -59780,10 +59805,10 @@
     </row>
     <row r="1043" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="C1043" s="2" t="s">
         <v>20</v>
@@ -59813,7 +59838,7 @@
       </c>
       <c r="M1043" s="3"/>
       <c r="N1043" s="2" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O1043" s="2" t="s">
         <v>310</v>
@@ -59830,10 +59855,10 @@
     </row>
     <row r="1044" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C1044" s="2" t="s">
         <v>20</v>
@@ -59880,10 +59905,10 @@
     </row>
     <row r="1045" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="C1045" s="2" t="s">
         <v>20</v>
@@ -59930,10 +59955,10 @@
     </row>
     <row r="1046" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B1046" s="2" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="C1046" s="2" t="s">
         <v>20</v>
@@ -59980,10 +60005,10 @@
     </row>
     <row r="1047" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C1047" s="2" t="s">
         <v>20</v>
@@ -60030,10 +60055,10 @@
     </row>
     <row r="1048" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B1048" s="2" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="C1048" s="2" t="s">
         <v>20</v>
@@ -60063,7 +60088,7 @@
       </c>
       <c r="M1048" s="3"/>
       <c r="N1048" s="2" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="O1048" s="2" t="s">
         <v>28</v>
@@ -60080,10 +60105,10 @@
     </row>
     <row r="1049" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="C1049" s="2" t="s">
         <v>20</v>
@@ -60125,15 +60150,15 @@
         <v>0.69</v>
       </c>
       <c r="R1049" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1050" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B1050" s="2" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="C1050" s="2" t="s">
         <v>20</v>
@@ -60180,10 +60205,10 @@
     </row>
     <row r="1051" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B1051" s="2" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C1051" s="2" t="s">
         <v>20</v>
@@ -60206,7 +60231,7 @@
         <v>25</v>
       </c>
       <c r="K1051" s="2" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="L1051" s="3">
         <v>45538</v>
@@ -60230,10 +60255,10 @@
     </row>
     <row r="1052" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B1052" s="2" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="C1052" s="2" t="s">
         <v>20</v>
@@ -60280,10 +60305,10 @@
     </row>
     <row r="1053" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="C1053" s="2" t="s">
         <v>20</v>
@@ -60330,10 +60355,10 @@
     </row>
     <row r="1054" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B1054" s="2" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C1054" s="2" t="s">
         <v>20</v>
@@ -60380,10 +60405,10 @@
     </row>
     <row r="1055" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B1055" s="2" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C1055" s="2" t="s">
         <v>20</v>
@@ -60430,10 +60455,10 @@
     </row>
     <row r="1056" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B1056" s="2" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C1056" s="2" t="s">
         <v>20</v>
@@ -60463,7 +60488,7 @@
       </c>
       <c r="M1056" s="3"/>
       <c r="N1056" s="2" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="O1056" s="2" t="s">
         <v>28</v>
@@ -60480,10 +60505,10 @@
     </row>
     <row r="1057" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B1057" s="2" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="C1057" s="2" t="s">
         <v>20</v>
@@ -60530,10 +60555,10 @@
     </row>
     <row r="1058" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C1058" s="2" t="s">
         <v>20</v>
@@ -60580,10 +60605,10 @@
     </row>
     <row r="1059" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B1059" s="2" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C1059" s="2" t="s">
         <v>20</v>
@@ -60606,14 +60631,14 @@
         <v>25</v>
       </c>
       <c r="K1059" s="2" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="L1059" s="3">
         <v>45559</v>
       </c>
       <c r="M1059" s="3"/>
       <c r="N1059" s="2" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="O1059" s="2" t="s">
         <v>28</v>
@@ -60630,10 +60655,10 @@
     </row>
     <row r="1060" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="2" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B1060" s="2" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C1060" s="2" t="s">
         <v>20</v>
@@ -60656,20 +60681,20 @@
         <v>25</v>
       </c>
       <c r="K1060" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1060" s="3">
         <v>45566</v>
       </c>
       <c r="M1060" s="3"/>
       <c r="N1060" s="2" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="O1060" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P1060" s="4">
-        <v>35736.58</v>
+        <v>35729.9</v>
       </c>
       <c r="Q1060" s="5">
         <v>0.4</v>
@@ -60680,10 +60705,10 @@
     </row>
     <row r="1061" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B1061" s="2" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C1061" s="2" t="s">
         <v>20</v>
@@ -60728,18 +60753,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1062" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B1062" s="2" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C1062" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1062" s="2" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="E1062" s="2"/>
       <c r="F1062" s="2" t="s">
@@ -60756,20 +60781,20 @@
         <v>25</v>
       </c>
       <c r="K1062" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="L1062" s="3">
-        <v>45566</v>
+        <v>45573</v>
       </c>
       <c r="M1062" s="3"/>
       <c r="N1062" s="2" t="s">
-        <v>2521</v>
+        <v>57</v>
       </c>
       <c r="O1062" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P1062" s="4">
-        <v>70000</v>
+        <v>77000</v>
       </c>
       <c r="Q1062" s="5">
         <v>0.7</v>
@@ -60778,7 +60803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1063" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1063" s="2" t="s">
         <v>2522</v>
       </c>
@@ -60789,127 +60814,137 @@
         <v>20</v>
       </c>
       <c r="D1063" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E1063" s="2"/>
-      <c r="F1063" s="2"/>
+      <c r="F1063" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1063" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1063" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1063" s="2"/>
+      <c r="J1063" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1063" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1063" s="3">
+        <v>45573</v>
+      </c>
+      <c r="M1063" s="3"/>
+      <c r="N1063" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O1063" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1063" s="4">
+        <v>60008</v>
+      </c>
+      <c r="Q1063" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="R1063" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2" t="s">
         <v>2524</v>
       </c>
-      <c r="H1063" s="2"/>
-      <c r="I1063" s="2" t="s">
+      <c r="B1064" s="2" t="s">
         <v>2525</v>
       </c>
-      <c r="J1063" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1063" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1063" s="3">
-        <v>44733</v>
-      </c>
-      <c r="M1063" s="3">
-        <v>44813</v>
-      </c>
-      <c r="N1063" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O1063" s="2"/>
-      <c r="P1063" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q1063" s="5">
-        <v>0</v>
-      </c>
-      <c r="R1063" s="2"/>
-    </row>
-    <row r="1064" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1064" s="2" t="s">
+      <c r="C1064" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1064" s="2"/>
+      <c r="F1064" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1064" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1064" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1064" s="2"/>
+      <c r="J1064" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1064" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1064" s="3">
+        <v>45566</v>
+      </c>
+      <c r="M1064" s="3"/>
+      <c r="N1064" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="B1064" s="2" t="s">
-        <v>2527</v>
-      </c>
-      <c r="C1064" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1064" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1064" s="2"/>
-      <c r="F1064" s="2"/>
-      <c r="G1064" s="2" t="s">
-        <v>2524</v>
-      </c>
-      <c r="H1064" s="2"/>
-      <c r="I1064" s="2" t="s">
-        <v>2525</v>
-      </c>
-      <c r="J1064" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1064" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="L1064" s="3">
-        <v>44733</v>
-      </c>
-      <c r="M1064" s="3">
-        <v>44813</v>
-      </c>
-      <c r="N1064" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O1064" s="2"/>
+      <c r="O1064" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="P1064" s="4">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="Q1064" s="5">
-        <v>0</v>
-      </c>
-      <c r="R1064" s="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="R1064" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="1065" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1065" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="B1065" s="2" t="s">
-        <v>2529</v>
-      </c>
       <c r="C1065" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1065" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E1065" s="2"/>
-      <c r="F1065" s="2"/>
+      <c r="F1065" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1065" s="2" t="s">
-        <v>2524</v>
-      </c>
-      <c r="H1065" s="2"/>
-      <c r="I1065" s="2" t="s">
-        <v>2525</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H1065" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1065" s="2"/>
       <c r="J1065" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1065" s="2" t="s">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="L1065" s="3">
-        <v>44733</v>
-      </c>
-      <c r="M1065" s="3">
-        <v>44813</v>
-      </c>
+        <v>45573</v>
+      </c>
+      <c r="M1065" s="3"/>
       <c r="N1065" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O1065" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="O1065" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="P1065" s="4">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="Q1065" s="5">
         <v>0</v>
@@ -60918,31 +60953,31 @@
     </row>
     <row r="1066" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1066" s="2" t="s">
         <v>2530</v>
       </c>
-      <c r="B1066" s="2" t="s">
-        <v>2531</v>
-      </c>
       <c r="C1066" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E1066" s="2"/>
       <c r="F1066" s="2"/>
       <c r="G1066" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1066" s="2"/>
       <c r="I1066" s="2" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="J1066" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1066" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="L1066" s="3">
         <v>44733</v>
@@ -60962,42 +60997,42 @@
       </c>
       <c r="R1066" s="2"/>
     </row>
-    <row r="1067" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
-        <v>2220</v>
+        <v>2533</v>
       </c>
       <c r="B1067" s="2" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C1067" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="E1067" s="2"/>
       <c r="F1067" s="2"/>
       <c r="G1067" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1067" s="2"/>
       <c r="I1067" s="2" t="s">
-        <v>250</v>
+        <v>2532</v>
       </c>
       <c r="J1067" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1067" s="2" t="s">
-        <v>2222</v>
+        <v>425</v>
       </c>
       <c r="L1067" s="3">
-        <v>43313</v>
+        <v>44733</v>
       </c>
       <c r="M1067" s="3">
-        <v>45351</v>
+        <v>44813</v>
       </c>
       <c r="N1067" s="2" t="s">
-        <v>2223</v>
+        <v>1236</v>
       </c>
       <c r="O1067" s="2"/>
       <c r="P1067" s="4">
@@ -61008,42 +61043,42 @@
       </c>
       <c r="R1067" s="2"/>
     </row>
-    <row r="1068" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B1068" s="2" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="C1068" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1068" s="2" t="s">
-        <v>519</v>
+        <v>123</v>
       </c>
       <c r="E1068" s="2"/>
       <c r="F1068" s="2"/>
       <c r="G1068" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1068" s="2"/>
       <c r="I1068" s="2" t="s">
-        <v>250</v>
+        <v>2532</v>
       </c>
       <c r="J1068" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1068" s="2" t="s">
-        <v>2222</v>
+        <v>120</v>
       </c>
       <c r="L1068" s="3">
-        <v>44708</v>
+        <v>44733</v>
       </c>
       <c r="M1068" s="3">
-        <v>45138</v>
+        <v>44813</v>
       </c>
       <c r="N1068" s="2" t="s">
-        <v>33</v>
+        <v>1236</v>
       </c>
       <c r="O1068" s="2"/>
       <c r="P1068" s="4">
@@ -61056,40 +61091,40 @@
     </row>
     <row r="1069" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1069" s="2" t="s">
-        <v>2240</v>
+        <v>2537</v>
       </c>
       <c r="B1069" s="2" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C1069" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="E1069" s="2"/>
       <c r="F1069" s="2"/>
       <c r="G1069" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1069" s="2"/>
       <c r="I1069" s="2" t="s">
-        <v>250</v>
+        <v>2532</v>
       </c>
       <c r="J1069" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1069" s="2" t="s">
-        <v>2222</v>
+        <v>26</v>
       </c>
       <c r="L1069" s="3">
-        <v>44690</v>
+        <v>44733</v>
       </c>
       <c r="M1069" s="3">
-        <v>45351</v>
+        <v>44813</v>
       </c>
       <c r="N1069" s="2" t="s">
-        <v>214</v>
+        <v>1236</v>
       </c>
       <c r="O1069" s="2"/>
       <c r="P1069" s="4">
@@ -61100,15 +61135,15 @@
       </c>
       <c r="R1069" s="2"/>
     </row>
-    <row r="1070" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1070" s="2" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="B1070" s="2" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="C1070" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1070" s="2" t="s">
         <v>250</v>
@@ -61116,7 +61151,7 @@
       <c r="E1070" s="2"/>
       <c r="F1070" s="2"/>
       <c r="G1070" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1070" s="2"/>
       <c r="I1070" s="2" t="s">
@@ -61126,16 +61161,16 @@
         <v>25</v>
       </c>
       <c r="K1070" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1070" s="3">
-        <v>43983</v>
+        <v>43313</v>
       </c>
       <c r="M1070" s="3">
         <v>45351</v>
       </c>
       <c r="N1070" s="2" t="s">
-        <v>33</v>
+        <v>2224</v>
       </c>
       <c r="O1070" s="2"/>
       <c r="P1070" s="4">
@@ -61148,21 +61183,21 @@
     </row>
     <row r="1071" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="B1071" s="2" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="C1071" s="2" t="s">
         <v>2540</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="E1071" s="2"/>
       <c r="F1071" s="2"/>
       <c r="G1071" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1071" s="2"/>
       <c r="I1071" s="2" t="s">
@@ -61172,16 +61207,16 @@
         <v>25</v>
       </c>
       <c r="K1071" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1071" s="3">
-        <v>44852</v>
+        <v>44708</v>
       </c>
       <c r="M1071" s="3">
-        <v>44948</v>
+        <v>45138</v>
       </c>
       <c r="N1071" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O1071" s="2"/>
       <c r="P1071" s="4">
@@ -61194,13 +61229,13 @@
     </row>
     <row r="1072" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="C1072" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1072" s="2" t="s">
         <v>250</v>
@@ -61208,7 +61243,7 @@
       <c r="E1072" s="2"/>
       <c r="F1072" s="2"/>
       <c r="G1072" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1072" s="2"/>
       <c r="I1072" s="2" t="s">
@@ -61218,10 +61253,10 @@
         <v>25</v>
       </c>
       <c r="K1072" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1072" s="3">
-        <v>44270</v>
+        <v>44690</v>
       </c>
       <c r="M1072" s="3">
         <v>45351</v>
@@ -61240,13 +61275,13 @@
     </row>
     <row r="1073" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1073" s="2" t="s">
-        <v>2246</v>
+        <v>2229</v>
       </c>
       <c r="B1073" s="2" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="C1073" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1073" s="2" t="s">
         <v>250</v>
@@ -61254,7 +61289,7 @@
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
       <c r="G1073" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1073" s="2"/>
       <c r="I1073" s="2" t="s">
@@ -61264,16 +61299,16 @@
         <v>25</v>
       </c>
       <c r="K1073" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1073" s="3">
-        <v>43556</v>
+        <v>43983</v>
       </c>
       <c r="M1073" s="3">
         <v>45351</v>
       </c>
       <c r="N1073" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O1073" s="2"/>
       <c r="P1073" s="4">
@@ -61286,23 +61321,21 @@
     </row>
     <row r="1074" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1074" s="2" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="C1074" s="2" t="s">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="D1074" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E1074" s="2"/>
-      <c r="F1074" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1074" s="2"/>
       <c r="G1074" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1074" s="2"/>
       <c r="I1074" s="2" t="s">
@@ -61312,14 +61345,16 @@
         <v>25</v>
       </c>
       <c r="K1074" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1074" s="3">
-        <v>44273</v>
-      </c>
-      <c r="M1074" s="3"/>
+        <v>44852</v>
+      </c>
+      <c r="M1074" s="3">
+        <v>44948</v>
+      </c>
       <c r="N1074" s="2" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="O1074" s="2"/>
       <c r="P1074" s="4">
@@ -61328,46 +61363,44 @@
       <c r="Q1074" s="5">
         <v>0</v>
       </c>
-      <c r="R1074" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="R1074" s="2"/>
     </row>
     <row r="1075" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1075" s="2" t="s">
-        <v>2545</v>
+        <v>2239</v>
       </c>
       <c r="B1075" s="2" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="C1075" s="2" t="s">
-        <v>20</v>
+        <v>2540</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="E1075" s="2"/>
       <c r="F1075" s="2"/>
       <c r="G1075" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1075" s="2"/>
       <c r="I1075" s="2" t="s">
-        <v>2547</v>
+        <v>250</v>
       </c>
       <c r="J1075" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1075" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1075" s="3">
-        <v>43997</v>
+        <v>44270</v>
       </c>
       <c r="M1075" s="3">
-        <v>45395</v>
+        <v>45351</v>
       </c>
       <c r="N1075" s="2" t="s">
-        <v>2547</v>
+        <v>214</v>
       </c>
       <c r="O1075" s="2"/>
       <c r="P1075" s="4">
@@ -61380,13 +61413,13 @@
     </row>
     <row r="1076" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
-        <v>2224</v>
+        <v>2247</v>
       </c>
       <c r="B1076" s="2" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C1076" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1076" s="2" t="s">
         <v>250</v>
@@ -61394,7 +61427,7 @@
       <c r="E1076" s="2"/>
       <c r="F1076" s="2"/>
       <c r="G1076" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1076" s="2"/>
       <c r="I1076" s="2" t="s">
@@ -61404,7 +61437,7 @@
         <v>25</v>
       </c>
       <c r="K1076" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1076" s="3">
         <v>43556</v>
@@ -61413,7 +61446,7 @@
         <v>45351</v>
       </c>
       <c r="N1076" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="O1076" s="2"/>
       <c r="P1076" s="4">
@@ -61426,21 +61459,23 @@
     </row>
     <row r="1077" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1077" s="2" t="s">
-        <v>2226</v>
+        <v>2550</v>
       </c>
       <c r="B1077" s="2" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C1077" s="2" t="s">
-        <v>2533</v>
+        <v>2547</v>
       </c>
       <c r="D1077" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E1077" s="2"/>
-      <c r="F1077" s="2"/>
+      <c r="F1077" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1077" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1077" s="2"/>
       <c r="I1077" s="2" t="s">
@@ -61450,16 +61485,14 @@
         <v>25</v>
       </c>
       <c r="K1077" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1077" s="3">
-        <v>43586</v>
-      </c>
-      <c r="M1077" s="3">
-        <v>45351</v>
-      </c>
+        <v>44273</v>
+      </c>
+      <c r="M1077" s="3"/>
       <c r="N1077" s="2" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="O1077" s="2"/>
       <c r="P1077" s="4">
@@ -61468,44 +61501,46 @@
       <c r="Q1077" s="5">
         <v>0</v>
       </c>
-      <c r="R1077" s="2"/>
+      <c r="R1077" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="1078" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
-        <v>2236</v>
+        <v>2552</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="C1078" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1078" s="2" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="E1078" s="2"/>
       <c r="F1078" s="2"/>
       <c r="G1078" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1078" s="2"/>
       <c r="I1078" s="2" t="s">
-        <v>250</v>
+        <v>2554</v>
       </c>
       <c r="J1078" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1078" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1078" s="3">
         <v>43997</v>
       </c>
       <c r="M1078" s="3">
-        <v>45351</v>
+        <v>45395</v>
       </c>
       <c r="N1078" s="2" t="s">
-        <v>214</v>
+        <v>2554</v>
       </c>
       <c r="O1078" s="2"/>
       <c r="P1078" s="4">
@@ -61516,15 +61551,15 @@
       </c>
       <c r="R1078" s="2"/>
     </row>
-    <row r="1079" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1079" s="2" t="s">
-        <v>2233</v>
+        <v>2225</v>
       </c>
       <c r="B1079" s="2" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="C1079" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1079" s="2" t="s">
         <v>250</v>
@@ -61532,7 +61567,7 @@
       <c r="E1079" s="2"/>
       <c r="F1079" s="2"/>
       <c r="G1079" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1079" s="2"/>
       <c r="I1079" s="2" t="s">
@@ -61542,16 +61577,16 @@
         <v>25</v>
       </c>
       <c r="K1079" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1079" s="3">
-        <v>44655</v>
+        <v>43556</v>
       </c>
       <c r="M1079" s="3">
         <v>45351</v>
       </c>
       <c r="N1079" s="2" t="s">
-        <v>2235</v>
+        <v>36</v>
       </c>
       <c r="O1079" s="2"/>
       <c r="P1079" s="4">
@@ -61564,21 +61599,21 @@
     </row>
     <row r="1080" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1080" s="2" t="s">
-        <v>2552</v>
+        <v>2227</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="C1080" s="2" t="s">
         <v>2540</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>519</v>
+        <v>250</v>
       </c>
       <c r="E1080" s="2"/>
       <c r="F1080" s="2"/>
       <c r="G1080" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1080" s="2"/>
       <c r="I1080" s="2" t="s">
@@ -61588,16 +61623,16 @@
         <v>25</v>
       </c>
       <c r="K1080" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1080" s="3">
-        <v>44438</v>
+        <v>43586</v>
       </c>
       <c r="M1080" s="3">
-        <v>45121</v>
+        <v>45351</v>
       </c>
       <c r="N1080" s="2" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="O1080" s="2"/>
       <c r="P1080" s="4">
@@ -61610,13 +61645,13 @@
     </row>
     <row r="1081" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
-        <v>2248</v>
+        <v>2237</v>
       </c>
       <c r="B1081" s="2" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C1081" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1081" s="2" t="s">
         <v>250</v>
@@ -61624,7 +61659,7 @@
       <c r="E1081" s="2"/>
       <c r="F1081" s="2"/>
       <c r="G1081" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1081" s="2"/>
       <c r="I1081" s="2" t="s">
@@ -61634,16 +61669,16 @@
         <v>25</v>
       </c>
       <c r="K1081" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1081" s="3">
-        <v>44398</v>
+        <v>43997</v>
       </c>
       <c r="M1081" s="3">
         <v>45351</v>
       </c>
       <c r="N1081" s="2" t="s">
-        <v>2555</v>
+        <v>214</v>
       </c>
       <c r="O1081" s="2"/>
       <c r="P1081" s="4">
@@ -61654,15 +61689,15 @@
       </c>
       <c r="R1081" s="2"/>
     </row>
-    <row r="1082" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
-        <v>2242</v>
+        <v>2234</v>
       </c>
       <c r="B1082" s="2" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="C1082" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1082" s="2" t="s">
         <v>250</v>
@@ -61670,7 +61705,7 @@
       <c r="E1082" s="2"/>
       <c r="F1082" s="2"/>
       <c r="G1082" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1082" s="2"/>
       <c r="I1082" s="2" t="s">
@@ -61680,16 +61715,16 @@
         <v>25</v>
       </c>
       <c r="K1082" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1082" s="3">
-        <v>44690</v>
+        <v>44655</v>
       </c>
       <c r="M1082" s="3">
         <v>45351</v>
       </c>
       <c r="N1082" s="2" t="s">
-        <v>214</v>
+        <v>2236</v>
       </c>
       <c r="O1082" s="2"/>
       <c r="P1082" s="4">
@@ -61700,23 +61735,23 @@
       </c>
       <c r="R1082" s="2"/>
     </row>
-    <row r="1083" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1083" s="2" t="s">
-        <v>1875</v>
+        <v>2559</v>
       </c>
       <c r="B1083" s="2" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="C1083" s="2" t="s">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="E1083" s="2"/>
       <c r="F1083" s="2"/>
       <c r="G1083" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1083" s="2"/>
       <c r="I1083" s="2" t="s">
@@ -61726,16 +61761,16 @@
         <v>25</v>
       </c>
       <c r="K1083" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1083" s="3">
-        <v>44256</v>
+        <v>44438</v>
       </c>
       <c r="M1083" s="3">
-        <v>45040</v>
+        <v>45121</v>
       </c>
       <c r="N1083" s="2" t="s">
-        <v>2252</v>
+        <v>214</v>
       </c>
       <c r="O1083" s="2"/>
       <c r="P1083" s="4">
@@ -61748,13 +61783,13 @@
     </row>
     <row r="1084" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
-        <v>2244</v>
+        <v>2249</v>
       </c>
       <c r="B1084" s="2" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="C1084" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="D1084" s="2" t="s">
         <v>250</v>
@@ -61762,7 +61797,7 @@
       <c r="E1084" s="2"/>
       <c r="F1084" s="2"/>
       <c r="G1084" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1084" s="2"/>
       <c r="I1084" s="2" t="s">
@@ -61772,16 +61807,16 @@
         <v>25</v>
       </c>
       <c r="K1084" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1084" s="3">
-        <v>44362</v>
+        <v>44398</v>
       </c>
       <c r="M1084" s="3">
         <v>45351</v>
       </c>
       <c r="N1084" s="2" t="s">
-        <v>214</v>
+        <v>2562</v>
       </c>
       <c r="O1084" s="2"/>
       <c r="P1084" s="4">
@@ -61794,10 +61829,10 @@
     </row>
     <row r="1085" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1085" s="2" t="s">
-        <v>2559</v>
+        <v>2243</v>
       </c>
       <c r="B1085" s="2" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="C1085" s="2" t="s">
         <v>2540</v>
@@ -61806,11 +61841,9 @@
         <v>250</v>
       </c>
       <c r="E1085" s="2"/>
-      <c r="F1085" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1085" s="2"/>
       <c r="G1085" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1085" s="2"/>
       <c r="I1085" s="2" t="s">
@@ -61820,14 +61853,16 @@
         <v>25</v>
       </c>
       <c r="K1085" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1085" s="3">
-        <v>44743</v>
-      </c>
-      <c r="M1085" s="3"/>
+        <v>44690</v>
+      </c>
+      <c r="M1085" s="3">
+        <v>45351</v>
+      </c>
       <c r="N1085" s="2" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="O1085" s="2"/>
       <c r="P1085" s="4">
@@ -61836,19 +61871,17 @@
       <c r="Q1085" s="5">
         <v>0</v>
       </c>
-      <c r="R1085" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="R1085" s="2"/>
     </row>
     <row r="1086" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
-        <v>2230</v>
+        <v>1876</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="C1086" s="2" t="s">
-        <v>2533</v>
+        <v>2547</v>
       </c>
       <c r="D1086" s="2" t="s">
         <v>250</v>
@@ -61856,7 +61889,7 @@
       <c r="E1086" s="2"/>
       <c r="F1086" s="2"/>
       <c r="G1086" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1086" s="2"/>
       <c r="I1086" s="2" t="s">
@@ -61866,16 +61899,16 @@
         <v>25</v>
       </c>
       <c r="K1086" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1086" s="3">
-        <v>42795</v>
+        <v>44256</v>
       </c>
       <c r="M1086" s="3">
-        <v>45351</v>
+        <v>45040</v>
       </c>
       <c r="N1086" s="2" t="s">
-        <v>2232</v>
+        <v>2253</v>
       </c>
       <c r="O1086" s="2"/>
       <c r="P1086" s="4">
@@ -61888,40 +61921,40 @@
     </row>
     <row r="1087" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1087" s="2" t="s">
-        <v>2562</v>
+        <v>2245</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C1087" s="2" t="s">
-        <v>20</v>
+        <v>2540</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E1087" s="2"/>
-      <c r="F1087" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1087" s="2"/>
       <c r="G1087" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1087" s="2"/>
       <c r="I1087" s="2" t="s">
-        <v>2564</v>
+        <v>250</v>
       </c>
       <c r="J1087" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1087" s="2" t="s">
-        <v>61</v>
+        <v>2223</v>
       </c>
       <c r="L1087" s="3">
-        <v>44963</v>
-      </c>
-      <c r="M1087" s="3"/>
+        <v>44362</v>
+      </c>
+      <c r="M1087" s="3">
+        <v>45351</v>
+      </c>
       <c r="N1087" s="2" t="s">
-        <v>2565</v>
+        <v>214</v>
       </c>
       <c r="O1087" s="2"/>
       <c r="P1087" s="4">
@@ -61934,40 +61967,40 @@
     </row>
     <row r="1088" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1088" s="2" t="s">
-        <v>2149</v>
+        <v>2566</v>
       </c>
       <c r="B1088" s="2" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="C1088" s="2" t="s">
-        <v>20</v>
+        <v>2547</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E1088" s="2"/>
-      <c r="F1088" s="2"/>
+      <c r="F1088" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1088" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1088" s="2"/>
       <c r="I1088" s="2" t="s">
-        <v>2564</v>
+        <v>250</v>
       </c>
       <c r="J1088" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1088" s="2" t="s">
-        <v>253</v>
+        <v>2223</v>
       </c>
       <c r="L1088" s="3">
-        <v>45005</v>
-      </c>
-      <c r="M1088" s="3">
-        <v>45180</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="M1088" s="3"/>
       <c r="N1088" s="2" t="s">
-        <v>2567</v>
+        <v>36</v>
       </c>
       <c r="O1088" s="2"/>
       <c r="P1088" s="4">
@@ -61976,44 +62009,46 @@
       <c r="Q1088" s="5">
         <v>0</v>
       </c>
-      <c r="R1088" s="2"/>
-    </row>
-    <row r="1089" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1088" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1089" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1089" s="2" t="s">
         <v>2568</v>
       </c>
-      <c r="B1089" s="2" t="s">
-        <v>2569</v>
-      </c>
       <c r="C1089" s="2" t="s">
-        <v>20</v>
+        <v>2540</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E1089" s="2"/>
       <c r="F1089" s="2"/>
       <c r="G1089" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1089" s="2"/>
       <c r="I1089" s="2" t="s">
-        <v>2525</v>
+        <v>250</v>
       </c>
       <c r="J1089" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1089" s="2" t="s">
-        <v>156</v>
+        <v>2223</v>
       </c>
       <c r="L1089" s="3">
-        <v>45097</v>
+        <v>42795</v>
       </c>
       <c r="M1089" s="3">
-        <v>45184</v>
+        <v>45351</v>
       </c>
       <c r="N1089" s="2" t="s">
-        <v>1236</v>
+        <v>2233</v>
       </c>
       <c r="O1089" s="2"/>
       <c r="P1089" s="4">
@@ -62026,36 +62061,36 @@
     </row>
     <row r="1090" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1090" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1090" s="2" t="s">
         <v>2570</v>
       </c>
-      <c r="B1090" s="2" t="s">
-        <v>2571</v>
-      </c>
       <c r="C1090" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E1090" s="2"/>
       <c r="F1090" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G1090" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1090" s="2"/>
       <c r="I1090" s="2" t="s">
-        <v>2547</v>
+        <v>2571</v>
       </c>
       <c r="J1090" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1090" s="2" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="L1090" s="3">
-        <v>44713</v>
+        <v>44963</v>
       </c>
       <c r="M1090" s="3"/>
       <c r="N1090" s="2" t="s">
@@ -62070,42 +62105,42 @@
       </c>
       <c r="R1090" s="2"/>
     </row>
-    <row r="1091" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1091" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1091" s="2" t="s">
         <v>2573</v>
       </c>
-      <c r="B1091" s="2" t="s">
-        <v>2574</v>
-      </c>
       <c r="C1091" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="E1091" s="2"/>
-      <c r="F1091" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1091" s="2"/>
       <c r="G1091" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1091" s="2"/>
       <c r="I1091" s="2" t="s">
-        <v>2547</v>
+        <v>2571</v>
       </c>
       <c r="J1091" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1091" s="2" t="s">
-        <v>2575</v>
+        <v>253</v>
       </c>
       <c r="L1091" s="3">
-        <v>42887</v>
-      </c>
-      <c r="M1091" s="3"/>
+        <v>45005</v>
+      </c>
+      <c r="M1091" s="3">
+        <v>45180</v>
+      </c>
       <c r="N1091" s="2" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="O1091" s="2"/>
       <c r="P1091" s="4">
@@ -62118,40 +62153,40 @@
     </row>
     <row r="1092" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1092" s="2" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B1092" s="2" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="C1092" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1092" s="2" t="s">
-        <v>342</v>
+        <v>204</v>
       </c>
       <c r="E1092" s="2"/>
-      <c r="F1092" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1092" s="2"/>
       <c r="G1092" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1092" s="2"/>
       <c r="I1092" s="2" t="s">
-        <v>2547</v>
+        <v>2532</v>
       </c>
       <c r="J1092" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1092" s="2" t="s">
-        <v>461</v>
+        <v>156</v>
       </c>
       <c r="L1092" s="3">
-        <v>45017</v>
-      </c>
-      <c r="M1092" s="3"/>
+        <v>45097</v>
+      </c>
+      <c r="M1092" s="3">
+        <v>45184</v>
+      </c>
       <c r="N1092" s="2" t="s">
-        <v>2579</v>
+        <v>1236</v>
       </c>
       <c r="O1092" s="2"/>
       <c r="P1092" s="4">
@@ -62164,40 +62199,40 @@
     </row>
     <row r="1093" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1093" s="2" t="s">
-        <v>2519</v>
+        <v>2577</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="C1093" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E1093" s="2"/>
-      <c r="F1093" s="2"/>
+      <c r="F1093" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1093" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1093" s="2"/>
       <c r="I1093" s="2" t="s">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="J1093" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1093" s="2" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="L1093" s="3">
-        <v>45063</v>
-      </c>
-      <c r="M1093" s="3">
-        <v>45565</v>
-      </c>
+        <v>44713</v>
+      </c>
+      <c r="M1093" s="3"/>
       <c r="N1093" s="2" t="s">
-        <v>2273</v>
+        <v>2579</v>
       </c>
       <c r="O1093" s="2"/>
       <c r="P1093" s="4">
@@ -62208,9 +62243,9 @@
       </c>
       <c r="R1093" s="2"/>
     </row>
-    <row r="1094" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1094" s="2" t="s">
-        <v>2271</v>
+        <v>2580</v>
       </c>
       <c r="B1094" s="2" t="s">
         <v>2581</v>
@@ -62219,31 +62254,31 @@
         <v>20</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E1094" s="2"/>
-      <c r="F1094" s="2"/>
+      <c r="F1094" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1094" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1094" s="2"/>
       <c r="I1094" s="2" t="s">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="J1094" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1094" s="2" t="s">
-        <v>71</v>
+        <v>2582</v>
       </c>
       <c r="L1094" s="3">
-        <v>45068</v>
-      </c>
-      <c r="M1094" s="3">
-        <v>45375</v>
-      </c>
+        <v>42887</v>
+      </c>
+      <c r="M1094" s="3"/>
       <c r="N1094" s="2" t="s">
-        <v>2273</v>
+        <v>2583</v>
       </c>
       <c r="O1094" s="2"/>
       <c r="P1094" s="4">
@@ -62256,40 +62291,40 @@
     </row>
     <row r="1095" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1095" s="2" t="s">
-        <v>1155</v>
+        <v>2584</v>
       </c>
       <c r="B1095" s="2" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="C1095" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1095" s="2" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="E1095" s="2"/>
-      <c r="F1095" s="2"/>
+      <c r="F1095" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1095" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1095" s="2"/>
       <c r="I1095" s="2" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="J1095" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K1095" s="2" t="s">
-        <v>1072</v>
+        <v>461</v>
       </c>
       <c r="L1095" s="3">
-        <v>45078</v>
-      </c>
-      <c r="M1095" s="3">
-        <v>45427</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="M1095" s="3"/>
       <c r="N1095" s="2" t="s">
-        <v>2547</v>
+        <v>2586</v>
       </c>
       <c r="O1095" s="2"/>
       <c r="P1095" s="4">
@@ -62302,40 +62337,40 @@
     </row>
     <row r="1096" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1096" s="2" t="s">
-        <v>2583</v>
+        <v>2524</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="C1096" s="2" t="s">
-        <v>2540</v>
+        <v>20</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="E1096" s="2"/>
-      <c r="F1096" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1096" s="2"/>
       <c r="G1096" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1096" s="2"/>
       <c r="I1096" s="2" t="s">
-        <v>250</v>
+        <v>2571</v>
       </c>
       <c r="J1096" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1096" s="2" t="s">
-        <v>2222</v>
+        <v>61</v>
       </c>
       <c r="L1096" s="3">
-        <v>45108</v>
-      </c>
-      <c r="M1096" s="3"/>
+        <v>45063</v>
+      </c>
+      <c r="M1096" s="3">
+        <v>45565</v>
+      </c>
       <c r="N1096" s="2" t="s">
-        <v>214</v>
+        <v>2274</v>
       </c>
       <c r="O1096" s="2"/>
       <c r="P1096" s="4">
@@ -62348,40 +62383,40 @@
     </row>
     <row r="1097" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1097" s="2" t="s">
-        <v>2585</v>
+        <v>2272</v>
       </c>
       <c r="B1097" s="2" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="C1097" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1097" s="2" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="E1097" s="2"/>
       <c r="F1097" s="2"/>
       <c r="G1097" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1097" s="2"/>
       <c r="I1097" s="2" t="s">
-        <v>2547</v>
+        <v>2571</v>
       </c>
       <c r="J1097" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1097" s="2" t="s">
-        <v>559</v>
+        <v>71</v>
       </c>
       <c r="L1097" s="3">
-        <v>45146</v>
+        <v>45068</v>
       </c>
       <c r="M1097" s="3">
-        <v>45156</v>
+        <v>45375</v>
       </c>
       <c r="N1097" s="2" t="s">
-        <v>2547</v>
+        <v>2274</v>
       </c>
       <c r="O1097" s="2"/>
       <c r="P1097" s="4">
@@ -62394,40 +62429,40 @@
     </row>
     <row r="1098" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1098" s="2" t="s">
-        <v>2253</v>
+        <v>1155</v>
       </c>
       <c r="B1098" s="2" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="C1098" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="E1098" s="2"/>
       <c r="F1098" s="2"/>
       <c r="G1098" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1098" s="2"/>
       <c r="I1098" s="2" t="s">
-        <v>250</v>
+        <v>2554</v>
       </c>
       <c r="J1098" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="K1098" s="2" t="s">
-        <v>2222</v>
+        <v>1072</v>
       </c>
       <c r="L1098" s="3">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="M1098" s="3">
-        <v>45351</v>
+        <v>45427</v>
       </c>
       <c r="N1098" s="2" t="s">
-        <v>2252</v>
+        <v>2554</v>
       </c>
       <c r="O1098" s="2"/>
       <c r="P1098" s="4">
@@ -62440,40 +62475,40 @@
     </row>
     <row r="1099" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1099" s="2" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B1099" s="2" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C1099" s="2" t="s">
-        <v>20</v>
+        <v>2547</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="E1099" s="2"/>
-      <c r="F1099" s="2"/>
+      <c r="F1099" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1099" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1099" s="2"/>
       <c r="I1099" s="2" t="s">
-        <v>2547</v>
+        <v>250</v>
       </c>
       <c r="J1099" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1099" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="L1099" s="3">
-        <v>44438</v>
-      </c>
-      <c r="M1099" s="3">
-        <v>45473</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="M1099" s="3"/>
       <c r="N1099" s="2" t="s">
-        <v>2547</v>
+        <v>214</v>
       </c>
       <c r="O1099" s="2"/>
       <c r="P1099" s="4">
@@ -62484,42 +62519,42 @@
       </c>
       <c r="R1099" s="2"/>
     </row>
-    <row r="1100" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1100" s="2" t="s">
-        <v>2250</v>
+        <v>2592</v>
       </c>
       <c r="B1100" s="2" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="C1100" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E1100" s="2"/>
       <c r="F1100" s="2"/>
       <c r="G1100" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1100" s="2"/>
       <c r="I1100" s="2" t="s">
-        <v>250</v>
+        <v>2554</v>
       </c>
       <c r="J1100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1100" s="2" t="s">
-        <v>2222</v>
+        <v>559</v>
       </c>
       <c r="L1100" s="3">
-        <v>45231</v>
+        <v>45146</v>
       </c>
       <c r="M1100" s="3">
-        <v>45351</v>
+        <v>45156</v>
       </c>
       <c r="N1100" s="2" t="s">
-        <v>2252</v>
+        <v>2554</v>
       </c>
       <c r="O1100" s="2"/>
       <c r="P1100" s="4">
@@ -62532,40 +62567,40 @@
     </row>
     <row r="1101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1101" s="2" t="s">
-        <v>928</v>
+        <v>2254</v>
       </c>
       <c r="B1101" s="2" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="C1101" s="2" t="s">
-        <v>20</v>
+        <v>2540</v>
       </c>
       <c r="D1101" s="2" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="E1101" s="2"/>
       <c r="F1101" s="2"/>
       <c r="G1101" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1101" s="2"/>
       <c r="I1101" s="2" t="s">
-        <v>2547</v>
+        <v>250</v>
       </c>
       <c r="J1101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1101" s="2" t="s">
-        <v>930</v>
+        <v>2223</v>
       </c>
       <c r="L1101" s="3">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="M1101" s="3">
-        <v>45535</v>
+        <v>45351</v>
       </c>
       <c r="N1101" s="2" t="s">
-        <v>2547</v>
+        <v>2253</v>
       </c>
       <c r="O1101" s="2"/>
       <c r="P1101" s="4">
@@ -62578,40 +62613,40 @@
     </row>
     <row r="1102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1102" s="2" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="B1102" s="2" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="C1102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="E1102" s="2"/>
       <c r="F1102" s="2"/>
       <c r="G1102" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1102" s="2"/>
       <c r="I1102" s="2" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1102" s="2" t="s">
-        <v>268</v>
+        <v>2223</v>
       </c>
       <c r="L1102" s="3">
-        <v>45362</v>
+        <v>44438</v>
       </c>
       <c r="M1102" s="3">
-        <v>45379</v>
+        <v>45473</v>
       </c>
       <c r="N1102" s="2" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="O1102" s="2"/>
       <c r="P1102" s="4">
@@ -62622,42 +62657,42 @@
       </c>
       <c r="R1102" s="2"/>
     </row>
-    <row r="1103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1103" s="2" t="s">
-        <v>2594</v>
+        <v>2251</v>
       </c>
       <c r="B1103" s="2" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C1103" s="2" t="s">
-        <v>20</v>
+        <v>2540</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E1103" s="2"/>
-      <c r="F1103" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F1103" s="2"/>
       <c r="G1103" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1103" s="2"/>
       <c r="I1103" s="2" t="s">
-        <v>2564</v>
+        <v>250</v>
       </c>
       <c r="J1103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1103" s="2" t="s">
-        <v>1627</v>
+        <v>2223</v>
       </c>
       <c r="L1103" s="3">
-        <v>45390</v>
-      </c>
-      <c r="M1103" s="3"/>
+        <v>45231</v>
+      </c>
+      <c r="M1103" s="3">
+        <v>45351</v>
+      </c>
       <c r="N1103" s="2" t="s">
-        <v>2547</v>
+        <v>2253</v>
       </c>
       <c r="O1103" s="2"/>
       <c r="P1103" s="4">
@@ -62668,42 +62703,42 @@
       </c>
       <c r="R1103" s="2"/>
     </row>
-    <row r="1104" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1104" s="2" t="s">
-        <v>2596</v>
+        <v>928</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="C1104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1104" s="2" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="E1104" s="2"/>
       <c r="F1104" s="2"/>
       <c r="G1104" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1104" s="2"/>
       <c r="I1104" s="2" t="s">
-        <v>2525</v>
+        <v>2554</v>
       </c>
       <c r="J1104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1104" s="2" t="s">
-        <v>120</v>
+        <v>930</v>
       </c>
       <c r="L1104" s="3">
-        <v>45461</v>
+        <v>45170</v>
       </c>
       <c r="M1104" s="3">
-        <v>45545</v>
+        <v>45535</v>
       </c>
       <c r="N1104" s="2" t="s">
-        <v>1236</v>
+        <v>2554</v>
       </c>
       <c r="O1104" s="2"/>
       <c r="P1104" s="4">
@@ -62716,40 +62751,40 @@
     </row>
     <row r="1105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1105" s="2" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="B1105" s="2" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="C1105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="E1105" s="2"/>
       <c r="F1105" s="2"/>
       <c r="G1105" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1105" s="2"/>
       <c r="I1105" s="2" t="s">
-        <v>2525</v>
+        <v>2554</v>
       </c>
       <c r="J1105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1105" s="2" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="L1105" s="3">
-        <v>45447</v>
+        <v>45362</v>
       </c>
       <c r="M1105" s="3">
-        <v>45524</v>
+        <v>45379</v>
       </c>
       <c r="N1105" s="2" t="s">
-        <v>1236</v>
+        <v>2554</v>
       </c>
       <c r="O1105" s="2"/>
       <c r="P1105" s="4">
@@ -62762,40 +62797,40 @@
     </row>
     <row r="1106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1106" s="2" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B1106" s="2" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="C1106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E1106" s="2"/>
-      <c r="F1106" s="2"/>
+      <c r="F1106" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1106" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1106" s="2"/>
       <c r="I1106" s="2" t="s">
-        <v>2525</v>
+        <v>2571</v>
       </c>
       <c r="J1106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1106" s="2" t="s">
-        <v>71</v>
+        <v>1627</v>
       </c>
       <c r="L1106" s="3">
-        <v>45433</v>
-      </c>
-      <c r="M1106" s="3">
-        <v>45510</v>
-      </c>
+        <v>45390</v>
+      </c>
+      <c r="M1106" s="3"/>
       <c r="N1106" s="2" t="s">
-        <v>1236</v>
+        <v>2554</v>
       </c>
       <c r="O1106" s="2"/>
       <c r="P1106" s="4">
@@ -62808,37 +62843,37 @@
     </row>
     <row r="1107" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A1107" s="2" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B1107" s="2" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C1107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1107" s="2" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="E1107" s="2"/>
       <c r="F1107" s="2"/>
       <c r="G1107" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1107" s="2"/>
       <c r="I1107" s="2" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="J1107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1107" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="L1107" s="3">
-        <v>45433</v>
+        <v>45461</v>
       </c>
       <c r="M1107" s="3">
-        <v>45510</v>
+        <v>45545</v>
       </c>
       <c r="N1107" s="2" t="s">
         <v>1236</v>
@@ -62854,37 +62889,37 @@
     </row>
     <row r="1108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1108" s="2" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B1108" s="2" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="C1108" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1108" s="2" t="s">
-        <v>359</v>
+        <v>114</v>
       </c>
       <c r="E1108" s="2"/>
       <c r="F1108" s="2"/>
       <c r="G1108" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1108" s="2"/>
       <c r="I1108" s="2" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="J1108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1108" s="2" t="s">
-        <v>729</v>
+        <v>71</v>
       </c>
       <c r="L1108" s="3">
-        <v>45468</v>
+        <v>45447</v>
       </c>
       <c r="M1108" s="3">
-        <v>45552</v>
+        <v>45524</v>
       </c>
       <c r="N1108" s="2" t="s">
         <v>1236</v>
@@ -62898,39 +62933,39 @@
       </c>
       <c r="R1108" s="2"/>
     </row>
-    <row r="1109" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1109" s="2" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="B1109" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="C1109" s="2" t="s">
-        <v>2533</v>
+        <v>20</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E1109" s="2"/>
       <c r="F1109" s="2"/>
       <c r="G1109" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="H1109" s="2"/>
       <c r="I1109" s="2" t="s">
-        <v>2547</v>
+        <v>2532</v>
       </c>
       <c r="J1109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1109" s="2" t="s">
-        <v>1072</v>
+        <v>71</v>
       </c>
       <c r="L1109" s="3">
-        <v>45474</v>
+        <v>45433</v>
       </c>
       <c r="M1109" s="3">
-        <v>45558</v>
+        <v>45510</v>
       </c>
       <c r="N1109" s="2" t="s">
         <v>1236</v>
@@ -62943,6 +62978,144 @@
         <v>0</v>
       </c>
       <c r="R1109" s="2"/>
+    </row>
+    <row r="1110" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1110" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1110" s="2"/>
+      <c r="F1110" s="2"/>
+      <c r="G1110" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H1110" s="2"/>
+      <c r="I1110" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J1110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1110" s="3">
+        <v>45433</v>
+      </c>
+      <c r="M1110" s="3">
+        <v>45510</v>
+      </c>
+      <c r="N1110" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O1110" s="2"/>
+      <c r="P1110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q1110" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1110" s="2"/>
+    </row>
+    <row r="1111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1111" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1111" s="2"/>
+      <c r="F1111" s="2"/>
+      <c r="G1111" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H1111" s="2"/>
+      <c r="I1111" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J1111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1111" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="L1111" s="3">
+        <v>45468</v>
+      </c>
+      <c r="M1111" s="3">
+        <v>45552</v>
+      </c>
+      <c r="N1111" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O1111" s="2"/>
+      <c r="P1111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q1111" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1111" s="2"/>
+    </row>
+    <row r="1112" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1112" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1112" s="2"/>
+      <c r="F1112" s="2"/>
+      <c r="G1112" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H1112" s="2"/>
+      <c r="I1112" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J1112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1112" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L1112" s="3">
+        <v>45474</v>
+      </c>
+      <c r="M1112" s="3">
+        <v>45558</v>
+      </c>
+      <c r="N1112" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O1112" s="2"/>
+      <c r="P1112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q1112" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
